--- a/appDE.xlsx
+++ b/appDE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\source\repos\language_aplication\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="2242">
   <si>
     <t>банк</t>
   </si>
@@ -4906,12 +4906,1970 @@
       <t>)</t>
     </r>
   </si>
+  <si>
+    <t>Ich muss arbeiten.</t>
+  </si>
+  <si>
+    <t>Я должен работать.</t>
+  </si>
+  <si>
+    <t>Sie können reinkommen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы (формально) можете заходить. </t>
+  </si>
+  <si>
+    <t>Sie soll abnehmen.</t>
+  </si>
+  <si>
+    <t>Ей следует похудеть.</t>
+  </si>
+  <si>
+    <t>Wir müssen früh aufstehen.</t>
+  </si>
+  <si>
+    <t>Мы должны рано вставать.</t>
+  </si>
+  <si>
+    <t>Ihr dürft hier das Auto parken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы (неформально) можете (нету запрещающего знака) припарковать машину тут. </t>
+  </si>
+  <si>
+    <t>Ich möchte die Suppe.</t>
+  </si>
+  <si>
+    <t>Я хотел бы суп.</t>
+  </si>
+  <si>
+    <t>Sie will schlafen.</t>
+  </si>
+  <si>
+    <t>Она хочет спать.</t>
+  </si>
+  <si>
+    <t>Das Mädchen soll die Wörter lernen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Девочке следует учить слова. </t>
+  </si>
+  <si>
+    <t>Ihr dürft laut sprechen.</t>
+  </si>
+  <si>
+    <t>Вам (ihr) можно говорить громко.</t>
+  </si>
+  <si>
+    <t>Du darfst nicht viel essen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тебе нельзя кушать много. </t>
+  </si>
+  <si>
+    <t>Er soll mehr schlafen.</t>
+  </si>
+  <si>
+    <t>Ему следует больше спать.</t>
+  </si>
+  <si>
+    <t>Du musst lernen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты должен учиться. </t>
+  </si>
+  <si>
+    <t>Der Junge will spielen.</t>
+  </si>
+  <si>
+    <t>Мальчик хочет играть.</t>
+  </si>
+  <si>
+    <t>Die Kinder können nicht lesen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дети не умеют читать. </t>
+  </si>
+  <si>
+    <t>Wir wollen in Österreich wohnen.</t>
+  </si>
+  <si>
+    <t>Мы хотим жить в Австрии.</t>
+  </si>
+  <si>
+    <t>Sie müssen pünktlich kommen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы (формально) должны прийти вовремя. </t>
+  </si>
+  <si>
+    <t>Sie kann gut tanzen.</t>
+  </si>
+  <si>
+    <t>Она может хорошо танцевать.</t>
+  </si>
+  <si>
+    <t>Du darfst die Musik hören.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тебе можно слушать музыку. </t>
+  </si>
+  <si>
+    <t>Die Schwester kann nicht lesen.</t>
+  </si>
+  <si>
+    <t>Сестра не умеет читать.</t>
+  </si>
+  <si>
+    <t>Die Eltern dürfen das Bier trinken.</t>
+  </si>
+  <si>
+    <t>Родителям можно пить пиво.</t>
+  </si>
+  <si>
+    <t>Ihr sollt die Hausaufgabe machen.</t>
+  </si>
+  <si>
+    <t>Вам (ihr) следует сделать домашнюю работу.</t>
+  </si>
+  <si>
+    <t>Sie darf nicht spät spazieren gehen.</t>
+  </si>
+  <si>
+    <t>Die Katze muss zu Hause bleiben.</t>
+  </si>
+  <si>
+    <t>Кошка должна остаться дома.</t>
+  </si>
+  <si>
+    <t>Das Mädchen will die Puppe.</t>
+  </si>
+  <si>
+    <t>Девочка хочет куклу.</t>
+  </si>
+  <si>
+    <t>Hier können Sie das Wasser kaufen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тут Вы (формально) можете купить воду. </t>
+  </si>
+  <si>
+    <t>Ich will frühstücken.</t>
+  </si>
+  <si>
+    <t>Я хочу завтракать.</t>
+  </si>
+  <si>
+    <t>Die Freunde können kommen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Друзья могут приехать. </t>
+  </si>
+  <si>
+    <t>Du musst das Kleid waschen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ты должна постирать платье. </t>
+  </si>
+  <si>
+    <t>Sie sollen helfen.</t>
+  </si>
+  <si>
+    <t>Вам (формально) следует помочь.</t>
+  </si>
+  <si>
+    <t>Ich muss gehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Я должен идти. </t>
+  </si>
+  <si>
+    <t>Mein Sohn darf im Schwimmbad schwimmen (Der Arzt hat das erlaubt).</t>
+  </si>
+  <si>
+    <t>Моему сын можно купаться в бассейне (врач разрешил).</t>
+  </si>
+  <si>
+    <t>Ich darf heute früher von der Arbeit gehen (Der Chef hat erlaubt).</t>
+  </si>
+  <si>
+    <t>Я могу сегодня уйти раньше с работы (шеф разрешил).</t>
+  </si>
+  <si>
+    <t>Jetzt darfst du dein Eis essen (Die Mutter sagt „ja“).</t>
+  </si>
+  <si>
+    <t>Теперь тебе можно есть своё мороженое (мама разрешает).</t>
+  </si>
+  <si>
+    <t>Die Touristen dürfen keine Fotos in diesem Museum machen (Es ist verboten).</t>
+  </si>
+  <si>
+    <t>Туристам нельзя делать фотографии в этом музее (это запрещено).</t>
+  </si>
+  <si>
+    <t>Das Baby darf rohes Gemüse und Obst nicht essen (Der Arzt erlaubt das nicht).</t>
+  </si>
+  <si>
+    <t>Малышу нельзя есть сырые овощи и фрукты (врач не разрешает).</t>
+  </si>
+  <si>
+    <t>Работники этой фирмы не могут пользоваться Интернетом в личных целях в рабочее время</t>
+  </si>
+  <si>
+    <t>Ist Klaus zu Hause? – Er dürfte jetzt im Unterricht sein.</t>
+  </si>
+  <si>
+    <t>Клаус дома? – Он, должно быть, на занятии.</t>
+  </si>
+  <si>
+    <t>Здесь рядом есть кино? – Должно быть, кино на следующей улице. Я вижу много афиш.</t>
+  </si>
+  <si>
+    <t>Wie alt ist die neue Kollegin? Sie dürfte sehr jung sein.</t>
+  </si>
+  <si>
+    <t>Gibt es ein Kino in der Nähe? – Es dürfte ein Kino in der nächsten Straße geben. Ich sehe viele Plakate.</t>
+  </si>
+  <si>
+    <t>Сколько лет новой коллеге?- (Предполагают, наверно) Она, должно быть, очень молода.</t>
+  </si>
+  <si>
+    <t>Kann ich die Tür aufmachen? Es ist schwül im Zimmer.</t>
+  </si>
+  <si>
+    <t>Я могу открыть дверь? В комнате душно.</t>
+  </si>
+  <si>
+    <t>Frau Köppel, können wir schon nach Hause gehen?</t>
+  </si>
+  <si>
+    <t>Госпожа Кёппель, мы уже можем идти домой?</t>
+  </si>
+  <si>
+    <t>Sie können Ihren Pass im dritten Schalter bekommen.</t>
+  </si>
+  <si>
+    <t>Вы можете получить свой паспорт в третьем окошке.</t>
+  </si>
+  <si>
+    <t>Inge kann sehr gut schwimmen.</t>
+  </si>
+  <si>
+    <t>Инга умеет хорошо плавать.</t>
+  </si>
+  <si>
+    <t>Ich kann nicht Fahrrad fahren, ich halte das Gleichgewicht nicht.</t>
+  </si>
+  <si>
+    <t>Я не умею кататься на велосипеде. Я не держу равновесие.</t>
+  </si>
+  <si>
+    <t>Kannst du kochen? – Ja, ich habe es von meiner Mutter gelernt.</t>
+  </si>
+  <si>
+    <t>Ты умеешь готовить? – Да, я научилась этому у моей мамы.</t>
+  </si>
+  <si>
+    <t>Bei eustudy.ru kann man sehr einfach Deutsch lernen.</t>
+  </si>
+  <si>
+    <t>На сайте eustudy.ru можно очень легко выучить немецкий.</t>
+  </si>
+  <si>
+    <t>Wenn du Zeit hast, kannst du einen Ausflug nach Schwerin machen.</t>
+  </si>
+  <si>
+    <t>Если у тебя будет время, ты сможешь поехать в Шверин на экскурсию.</t>
+  </si>
+  <si>
+    <t>Er hat im Lotto gewonnen. Jetzt kann er ein Haus kaufen oder ein Unternehmen gründen.</t>
+  </si>
+  <si>
+    <t>Он выиграл в лото. Теперь он может купить дом или основать предприятие.</t>
+  </si>
+  <si>
+    <t>Jan ist 10 Jahre alt. Er kann jetzt in der 5. Klasse lernen.</t>
+  </si>
+  <si>
+    <t>Яну 10 лет. Он (вполне) может учиться сейчас в 5 классе.</t>
+  </si>
+  <si>
+    <t>Sie ist so schön. Sie kann Fotomodell werden.</t>
+  </si>
+  <si>
+    <t>Она такая красивая. Она может стать фотомоделью.</t>
+  </si>
+  <si>
+    <t>Ihre Wohnung ist so groß, ihr Sohn kann hier Fahrrad fahren!</t>
+  </si>
+  <si>
+    <t>Ваша квартира такая большая, ваш сын может ездить здесь на велосипеде!</t>
+  </si>
+  <si>
+    <t>Torsten kann nicht Spanisch sprechen.</t>
+  </si>
+  <si>
+    <t>Торстен не умеет говорить по-испански.</t>
+  </si>
+  <si>
+    <t>Olaf kann nicht Geige spielen.</t>
+  </si>
+  <si>
+    <t>Олаф не умеет играть на скрипке.</t>
+  </si>
+  <si>
+    <t>Wir können nicht Pilze sammeln.</t>
+  </si>
+  <si>
+    <t>Мы не умеем собирать грибы.</t>
+  </si>
+  <si>
+    <t>Alleine kann man nicht dieses Fach beherrschen.</t>
+  </si>
+  <si>
+    <t>В одиночку нельзя осилить этот предмет.</t>
+  </si>
+  <si>
+    <t>Das kann nicht sein! Ich glaube dir nicht!</t>
+  </si>
+  <si>
+    <t>Этого не может быть! Я тебе не верю!</t>
+  </si>
+  <si>
+    <t>Kein Mensch kann ohne Wasser lange leben.</t>
+  </si>
+  <si>
+    <t>Ни один человек не может прожить долго без воды.</t>
+  </si>
+  <si>
+    <t>Ich könnte dir helfen. Ich kenne mich gut in diesem Thema aus.</t>
+  </si>
+  <si>
+    <t>Я бы мог тебе помочь. Я хорошо ориентируюсь в этой теме.</t>
+  </si>
+  <si>
+    <t>Im Süden könnte heute Nachmittag stark regnen.</t>
+  </si>
+  <si>
+    <t>На юге сегодня может идти сильный дождь.</t>
+  </si>
+  <si>
+    <t>Am Samstag könnten wir am Flussufer einen Spaziergang machen.</t>
+  </si>
+  <si>
+    <t>В субботу мы могли бы совершить прогулку по берегу реки.</t>
+  </si>
+  <si>
+    <t>Möchtest du etwas trinken?</t>
+  </si>
+  <si>
+    <t>Ты хотел бы что-то выпить?</t>
+  </si>
+  <si>
+    <t>Ich mag den Rock nicht, ich ziehe ihn nicht an.</t>
+  </si>
+  <si>
+    <t>Мне не нравится эта юбка, я ее не надену</t>
+  </si>
+  <si>
+    <t>Walter mag kein Fleisch, er ist eifriger Vegetarier.</t>
+  </si>
+  <si>
+    <t>Вальтеру не нравится мясо, он ярый вегетарианец.</t>
+  </si>
+  <si>
+    <t>Wir mögen beim sonnigen Wetter im Park oder am See spazieren gehen.</t>
+  </si>
+  <si>
+    <t>Мы любим в солнечную погоду погулять по парку или возле озера.</t>
+  </si>
+  <si>
+    <t>Magst du mit mir ein Bierchen trinken?</t>
+  </si>
+  <si>
+    <t>Хочешь (понравилось бы тебе) выпить со мной бокальчик пива?</t>
+  </si>
+  <si>
+    <t>Oliver mag sportliche Autos, er will sich bald ein solches Auto kaufen.</t>
+  </si>
+  <si>
+    <t>Оливеру нравятся спортивные машины, он хочет купить себе одну такую.</t>
+  </si>
+  <si>
+    <t>Entschuldige, aber heute mag ich nicht ins Kino gehen, ich bleibe lieber zu Hause.</t>
+  </si>
+  <si>
+    <t>Извини, но сегодня я не хочу идти в кино, я лучше останусь дома.</t>
+  </si>
+  <si>
+    <t>Silvia mag darüber nicht sprechen.</t>
+  </si>
+  <si>
+    <t>У Сильвии нет желания говорить об этом.</t>
+  </si>
+  <si>
+    <t>Der kleine Florian mag neuerdings keine Mütze tragen.</t>
+  </si>
+  <si>
+    <t>Маленький Флориан последнее время не любит носить шапку.</t>
+  </si>
+  <si>
+    <t>Möchten Sie lieber Fleisch oder Fisch (essen)?</t>
+  </si>
+  <si>
+    <t>Вы хотели бы мясо или рыбу?</t>
+  </si>
+  <si>
+    <t>Für die Winterferien möchten wir in die Alpen (fahren).</t>
+  </si>
+  <si>
+    <t>На зимние каникулы мы хотели бы (поехать) в Альпы.</t>
+  </si>
+  <si>
+    <t>Ich möchte so gern einmal eine Weltreise (machen). Das ist mein Kinderwunsch.</t>
+  </si>
+  <si>
+    <t>Как бы я хотел (совершить) кругосветное путешествие! Это мечта моего детства.</t>
+  </si>
+  <si>
+    <t>Sie müssen mir jetzt Ihren Führerschein zeigen.</t>
+  </si>
+  <si>
+    <t>Вы должны показать мне Ваше водительское удостоверение.</t>
+  </si>
+  <si>
+    <t>Du musst zum Vorstellungsgespräch kommen, wenn du diese Stelle bekommen willst.</t>
+  </si>
+  <si>
+    <t>Ты должен прийти на собеседование, если хочешь получить эту должность.</t>
+  </si>
+  <si>
+    <t>Sie müssen gehen, es ist schon spät.</t>
+  </si>
+  <si>
+    <t>Вы должны уходить, уже поздно.</t>
+  </si>
+  <si>
+    <t>Du musst mir nicht helfen, das ist meine Aufgabe. (= Du brauchst nicht mir zu helfen.)</t>
+  </si>
+  <si>
+    <t>Ты не должен мне помогать, это мое задание.</t>
+  </si>
+  <si>
+    <t>Er muss zu dieser Party nicht gehen. (= Er braucht nicht zu dieser Party zu gehen.)</t>
+  </si>
+  <si>
+    <t>Он не должен идти на эту вечеринку.</t>
+  </si>
+  <si>
+    <t>Holger muss nicht jeden Tag aufräumen. (= Holger braucht nicht jeden Tag aufzuräumen.)</t>
+  </si>
+  <si>
+    <t>Хольгер не должен убираться каждый день.</t>
+  </si>
+  <si>
+    <t>Willst du den Wettbewerb gewinnen, so musst du dich viel trainieren.</t>
+  </si>
+  <si>
+    <t>Если хочешь выиграть соревнование, ты должен много тренироваться.</t>
+  </si>
+  <si>
+    <t>Ich muss heute Abend früher schlafen gehen, morgen lege ich eine wichtige Prüfung ab.</t>
+  </si>
+  <si>
+    <t>Я сегодня должен пойти раньше спать, завтра я сдаю важный экзамен.</t>
+  </si>
+  <si>
+    <t>Du musst deine Kleidung waschen.</t>
+  </si>
+  <si>
+    <t>Ты должен постирать свои вещи.</t>
+  </si>
+  <si>
+    <t>Gerhard hat kein Geld, er muss arbeiten gehen.</t>
+  </si>
+  <si>
+    <t>Heute ist Wochenende, wir müssen uns erholen.</t>
+  </si>
+  <si>
+    <t>У Герхарда нет денег, он должен пойти работать.</t>
+  </si>
+  <si>
+    <t>Сегодня выходной, мы должны отдохнуть.</t>
+  </si>
+  <si>
+    <t>Jan hat ein neues Auto gekauft, er muss sehr froh sein.</t>
+  </si>
+  <si>
+    <t>Ян купил новую машину, он должен быть рад.</t>
+  </si>
+  <si>
+    <t>Der Chef hat angerufen und gesagt, dass du den Bericht zum Mittag vorbereiten sollst.</t>
+  </si>
+  <si>
+    <t>Шеф звонил, сказал, что ты должен подготовить отчет к обеду.</t>
+  </si>
+  <si>
+    <t>Ich war beim Arzt, ich soll ab morgen Vitamine einnehmen und Sport treiben.</t>
+  </si>
+  <si>
+    <t>Я был у врача, с завтрашнего дня я должен принимать витамины и заниматься спортом.</t>
+  </si>
+  <si>
+    <t>Er soll sie persönlich anrufen. Ich habe ihn gebeten.</t>
+  </si>
+  <si>
+    <t>Он должен позвонить ей лично. Я его просил.</t>
+  </si>
+  <si>
+    <t>Ich habe gesagt, du sollst jetzt das Zimmer aufräumen!</t>
+  </si>
+  <si>
+    <t>Я сказал, ты должен сейчас же убраться в комнате.</t>
+  </si>
+  <si>
+    <t>Kinder, ihr sollt jetzt sofort das Schwimmbad verlassen.</t>
+  </si>
+  <si>
+    <t>Дети, вы должны немедленно выйти из бассейна.</t>
+  </si>
+  <si>
+    <t>Du sollst mir ab sofort die ganze Wahrheit sagen.</t>
+  </si>
+  <si>
+    <t>Ты должен сейчас же рассказать мне всю правду.</t>
+  </si>
+  <si>
+    <t>Man sagt, er soll wieder heiraten.</t>
+  </si>
+  <si>
+    <t>Говорят, он снова женится.</t>
+  </si>
+  <si>
+    <t>Die Leute erzählen sich, dass hier Gespenster wohnen sollen.</t>
+  </si>
+  <si>
+    <t>Люди говорят, что в этом доме живут привидения.</t>
+  </si>
+  <si>
+    <t>Man soll in der Fußgängerzone nicht fahren.</t>
+  </si>
+  <si>
+    <t>Нельзя ездить по пешеходной зоне.</t>
+  </si>
+  <si>
+    <t>Man soll das Auto betrunken nicht fahren.</t>
+  </si>
+  <si>
+    <t>Нельзя водить машину в пьяном виде.</t>
+  </si>
+  <si>
+    <t>Man soll im Gericht nur Wahrheit sagen.</t>
+  </si>
+  <si>
+    <t>В суде нужно говорить только правду.</t>
+  </si>
+  <si>
+    <t>Diese Übungen sollen Ihnen helfen, den Gebrauch der Modalverben besser zu verstehen.</t>
+  </si>
+  <si>
+    <t>Эти упражнения должны Вам помочь лучше понять применение модальных глаголов.</t>
+  </si>
+  <si>
+    <t>Das soll euch eine Lehre sein.</t>
+  </si>
+  <si>
+    <t>Это будет вам наукой.</t>
+  </si>
+  <si>
+    <t>Wir müssen diesen Berg steigen!</t>
+  </si>
+  <si>
+    <t>Мы должны забраться на эту гору!</t>
+  </si>
+  <si>
+    <t>Mein Hund will nicht draußen schlafen.</t>
+  </si>
+  <si>
+    <t>Моя собака не хочет спать на улице.</t>
+  </si>
+  <si>
+    <t>Ich will nicht mehr zu den Kursen gehen.</t>
+  </si>
+  <si>
+    <t>Я не хочу больше ходить на курсы.</t>
+  </si>
+  <si>
+    <t>Wir wollen nicht mit ihnen spielen.</t>
+  </si>
+  <si>
+    <t>Мы не хотим играть с ними.</t>
+  </si>
+  <si>
+    <t>Ich will mehr Blumen und Pflanzen auf dem Balkon haben.</t>
+  </si>
+  <si>
+    <t>Я хочу иметь больше цветов и растений на балконе.</t>
+  </si>
+  <si>
+    <t>Wir wollen die deutsche Sprache so schnell wie möglich lernen.</t>
+  </si>
+  <si>
+    <t>Мы хотим выучить немецкий язык как можно быстрее.</t>
+  </si>
+  <si>
+    <t>Lora will als Kinderärztin in der Zukunft arbeiten.</t>
+  </si>
+  <si>
+    <t>Лора хочет работать детским врачом в будущем.</t>
+  </si>
+  <si>
+    <t>Die Arbeiter dieser Firma dürfen nicht das Internet für persönliche Zwecke während der Arbeitszeit gebrauchen (Das ist die Regel).</t>
+  </si>
+  <si>
+    <t>Ich muss jetzt zur Arbeit (gehen /fahren).</t>
+  </si>
+  <si>
+    <t>Мне нужно на работу (идти /ехать).</t>
+  </si>
+  <si>
+    <t>Du musst in die Stadt (fahren).</t>
+  </si>
+  <si>
+    <t>Тебе нужно в город (ехать).</t>
+  </si>
+  <si>
+    <t>Ich kann kein Wort Französisch (sprechen /verstehen).</t>
+  </si>
+  <si>
+    <t>Я не умею ни слова по-французски (говорить /понимать).</t>
+  </si>
+  <si>
+    <t>Ich mag keine Cola (trinken).</t>
+  </si>
+  <si>
+    <t>Я не люблю колу (пить).</t>
+  </si>
+  <si>
+    <t>Er mag keine Kartoffeln (essen).</t>
+  </si>
+  <si>
+    <t>Он не любит картошку (есть).</t>
+  </si>
+  <si>
+    <t>Ich muss mal (Pipi machen /aufs Klo /auf die Toilette gehen).</t>
+  </si>
+  <si>
+    <t>Мне нужно (в туалет).</t>
+  </si>
+  <si>
+    <t>Du darfst jetzt nach Hause (gehen).</t>
+  </si>
+  <si>
+    <t>Ты можешь домой (идти).</t>
+  </si>
+  <si>
+    <t>Tim will eine gute Familie (haben)</t>
+  </si>
+  <si>
+    <t>Тим хочет хорошую семью (иметь).</t>
+  </si>
+  <si>
+    <t>Mein Sohn kann nicht basteln.</t>
+  </si>
+  <si>
+    <t>Мой сын не умеет мастерить.</t>
+  </si>
+  <si>
+    <t>Meine Tochter kann es dagegen sehr gut.</t>
+  </si>
+  <si>
+    <t>Моя дочка наоборот может это очень хорошо.</t>
+  </si>
+  <si>
+    <t>Diana kann nicht zur Party kommen.</t>
+  </si>
+  <si>
+    <t>Диана не может прийти на вечеринку.</t>
+  </si>
+  <si>
+    <t>Ich kann auch nicht.</t>
+  </si>
+  <si>
+    <t>Я тоже не могу.</t>
+  </si>
+  <si>
+    <t>Können Sie die Waschmaschine reparieren?</t>
+  </si>
+  <si>
+    <t>Вы можете починить стиральную машину?</t>
+  </si>
+  <si>
+    <t>Не вопрос, могу.</t>
+  </si>
+  <si>
+    <t>Das ist kein Problem, das kann ich.</t>
+  </si>
+  <si>
+    <t>Ich möchte eine Tasse Kaffee trinken</t>
+  </si>
+  <si>
+    <t>Я хотел бы выпить чашечку кофе</t>
+  </si>
+  <si>
+    <t>Möchtest du einen Kuchen essen?</t>
+  </si>
+  <si>
+    <t>Хотел бы ты съесть пирог?</t>
+  </si>
+  <si>
+    <t>Sie möchten bitte morgen um 5 Uhr zum Doktor Müller kommen</t>
+  </si>
+  <si>
+    <t>Вы должны прийти завтра в 5 к доктору Мюллеру</t>
+  </si>
+  <si>
+    <t>Kinder, ihr möchtet morgen die Küche aufräumen!</t>
+  </si>
+  <si>
+    <t>Дети, вам нужно убрать завтра кухню</t>
+  </si>
+  <si>
+    <t>Ich weiß das genau!</t>
+  </si>
+  <si>
+    <t>Я это точно знаю</t>
+  </si>
+  <si>
+    <t>Wir wissen unser Ziel</t>
+  </si>
+  <si>
+    <t>Мы знаем нашу цель</t>
+  </si>
+  <si>
+    <t>Du sollst nicht töten! </t>
+  </si>
+  <si>
+    <t>Ты не должен убивать (Не убий!)</t>
+  </si>
+  <si>
+    <t>Jeder soll seine Eltern ehren</t>
+  </si>
+  <si>
+    <t>Каждый должен уважать своих родителей</t>
+  </si>
+  <si>
+    <t>Meine Mutter sagt mir immer: "Du sollst heute früh nach Hause kommen" </t>
+  </si>
+  <si>
+    <t>Моя мама мне всегда говорит: "Сегодня ты должен рано придти домой"</t>
+  </si>
+  <si>
+    <t>Ich bin krank, ich muss nach Hause gehen</t>
+  </si>
+  <si>
+    <t>Я болен, мне надо идти домой</t>
+  </si>
+  <si>
+    <t>Ich muss fleißig lernen, wenn ich an dieser Uni studieren will</t>
+  </si>
+  <si>
+    <t>Я должен прилежно учиться, если я хочу поступить в этот университет</t>
+  </si>
+  <si>
+    <t>Dass musste so sein, das war ganz klar</t>
+  </si>
+  <si>
+    <t>Так и должно было быть, это было совершенно ясно</t>
+  </si>
+  <si>
+    <t>Ich will Deutsch gründlich lernen</t>
+  </si>
+  <si>
+    <t>Я хочу основательно учить немецкий</t>
+  </si>
+  <si>
+    <t>Im Dezember wollen wir ein neues Auto kaufen</t>
+  </si>
+  <si>
+    <t>В декабре мы хотим купить новую машину</t>
+  </si>
+  <si>
+    <t>Ich mag Torte essen</t>
+  </si>
+  <si>
+    <t>Я люблю есть торт</t>
+  </si>
+  <si>
+    <t>Ich mag dieses Mädchen</t>
+  </si>
+  <si>
+    <t>Мне нравится эта девочка</t>
+  </si>
+  <si>
+    <t>Vögel können fliegen.</t>
+  </si>
+  <si>
+    <t>Птицы могут летать. (это их врожденная способность)</t>
+  </si>
+  <si>
+    <t>Er kann Ski fahren.</t>
+  </si>
+  <si>
+    <t>Он может кататься на лыжах. (Он научился этому в детстве. Приобретенная возможность)</t>
+  </si>
+  <si>
+    <t>Наконец-то у нас отпуск. Сейчас мы можем отправиться в горы.</t>
+  </si>
+  <si>
+    <t>Sie kann noch zu Hause sein</t>
+  </si>
+  <si>
+    <t>Она, может быть, еще дома.</t>
+  </si>
+  <si>
+    <t>Sie dürfen mein Auto nehmen.</t>
+  </si>
+  <si>
+    <t>Вы можете взять мою машину. (Я разрешаю Вам)</t>
+  </si>
+  <si>
+    <t>Hier darf man nicht rauchen.</t>
+  </si>
+  <si>
+    <t>Здесь нельзя курить.</t>
+  </si>
+  <si>
+    <t>Du darfst nicht weinen! (=Weine nicht!) </t>
+  </si>
+  <si>
+    <t>Не надо плакать!</t>
+  </si>
+  <si>
+    <t>Ich muss nach Hause gehen. Es ist schon spät.</t>
+  </si>
+  <si>
+    <t>Я должен идти домой. Уже поздно. (обстоятельство – позднее время и необходимость – идти домой, чтобы успеть на автобус, например)</t>
+  </si>
+  <si>
+    <t>Ich muss dem Verletzten helfen.</t>
+  </si>
+  <si>
+    <t>Я должен помочь раненому. (Я не могу поступить иначе)</t>
+  </si>
+  <si>
+    <t>Radfahrer müssen hintereinander fahren.</t>
+  </si>
+  <si>
+    <t>Велосипедисты должны ехать друг за другом.</t>
+  </si>
+  <si>
+    <t>Der Sturm war so stark, dass unser Boot kentern musste. </t>
+  </si>
+  <si>
+    <t>Шторм был настолько силен, что наша лодка перевернулась.</t>
+  </si>
+  <si>
+    <t>Er muss sehr klug sein.</t>
+  </si>
+  <si>
+    <t>Он, должно быть, очень умный.</t>
+  </si>
+  <si>
+    <t>Ich soll dir den Brief übergeben.</t>
+  </si>
+  <si>
+    <t>Я должен передать тебе письмо. (Я получил указание передать тебе письмо)</t>
+  </si>
+  <si>
+    <t>Diese Werbung soll die Käufer betrügen.</t>
+  </si>
+  <si>
+    <t>Эта реклама должна обманывать покупателей.</t>
+  </si>
+  <si>
+    <t>Ich soll ihn um 6 Uhr abholen.</t>
+  </si>
+  <si>
+    <t>Я должен встретить его в 6 часов. (Запланировано встретить его в 6 часов)</t>
+  </si>
+  <si>
+    <t>Du sollst es bekommen. </t>
+  </si>
+  <si>
+    <t>Ты получишь это. (обязательно)</t>
+  </si>
+  <si>
+    <t>Woher soll ich das wissen?</t>
+  </si>
+  <si>
+    <t>Откуда мне это знать?</t>
+  </si>
+  <si>
+    <t>Sie will ihre Eltern besuchen.</t>
+  </si>
+  <si>
+    <t>Она хочет навестить родителей.</t>
+  </si>
+  <si>
+    <t>Es will regnen.</t>
+  </si>
+  <si>
+    <t>Собирается дождь.</t>
+  </si>
+  <si>
+    <t>Wir wollen gehen!</t>
+  </si>
+  <si>
+    <t>Пойдемте!</t>
+  </si>
+  <si>
+    <t>Das Buch will zahlreiche Fragen beantworten.</t>
+  </si>
+  <si>
+    <t>Задача этой книги – ответить на многочисленные вопросы.</t>
+  </si>
+  <si>
+    <t>Die Wunde will nicht heilen.</t>
+  </si>
+  <si>
+    <t>Рана не заживает.</t>
+  </si>
+  <si>
+    <t>Sie möchte die Zeitung noch einmal lesen.</t>
+  </si>
+  <si>
+    <t>Она хотела бы прочитать газету еще раз</t>
+  </si>
+  <si>
+    <t>Die Leute mögen reden, was sie wollen.</t>
+  </si>
+  <si>
+    <t>Пусть люди говорят, что хотят.</t>
+  </si>
+  <si>
+    <t>Es mag sein, dass…</t>
+  </si>
+  <si>
+    <t>Может быть, что…</t>
+  </si>
+  <si>
+    <t>Ich will keinen Kaffee (trinken).</t>
+  </si>
+  <si>
+    <t>Я не хочу (пить) кофе.</t>
+  </si>
+  <si>
+    <t>Er kann gut Englisch (sprechen).</t>
+  </si>
+  <si>
+    <t>Он может хорошо (говорить) на английском языке.</t>
+  </si>
+  <si>
+    <t>Ich muss die Eltern besuchen.</t>
+  </si>
+  <si>
+    <t>Я должен навестить родителей.</t>
+  </si>
+  <si>
+    <t>Ich muss sparen.</t>
+  </si>
+  <si>
+    <t>Я должен экономить.</t>
+  </si>
+  <si>
+    <t>Ich muss um 8.30 Uhr im Büro sein.</t>
+  </si>
+  <si>
+    <t>Мне нужно в 8:30 быть в офисе. (я это осознаю сам)</t>
+  </si>
+  <si>
+    <t>Ihr sollt die Arbeit heute abgeben!</t>
+  </si>
+  <si>
+    <t>Вы должны сдать работу сегодня!</t>
+  </si>
+  <si>
+    <t>Ich will eine Tasse Tee trinken. </t>
+  </si>
+  <si>
+    <t>Я хочу выпить чашку чая.</t>
+  </si>
+  <si>
+    <t>Sie mag krank sein. </t>
+  </si>
+  <si>
+    <t>Она, возможно, больна.</t>
+  </si>
+  <si>
+    <t>Was mag das bedeuten?</t>
+  </si>
+  <si>
+    <t>Что это может означать?</t>
+  </si>
+  <si>
+    <t>Ich mag Eis.</t>
+  </si>
+  <si>
+    <t>Я люблю мороженое.</t>
+  </si>
+  <si>
+    <t>Ich möchte eine Tasse Tee trinken.</t>
+  </si>
+  <si>
+    <t>Я хотел бы выпить чашку чая.</t>
+  </si>
+  <si>
+    <t>mögen означает интерес к чему-то, любовь, переводится как “желать, любить”
+Важно:
+1. Используется еще и для выражения предположения.</t>
+  </si>
+  <si>
+    <t>mögen означает интерес к чему-то, любовь, переводится как “желать, любить”
+Важно:
+1. Используется еще и для выражения предположения.</t>
+  </si>
+  <si>
+    <t>wollen выражает твердое желание или решение совершить действие, переводится как “хотеть”</t>
+  </si>
+  <si>
+    <t>sollen используется для выражения приказа, соблюдения правил или закона, переводится как “быть обязанным”</t>
+  </si>
+  <si>
+    <t>müssen выражает необходимость выполнять то или иное действие под влиянием внутреннего давления (то есть, мы сами осознаем, что это сделать необходимо) , переводится как “быть должным, быть вынужденным”</t>
+  </si>
+  <si>
+    <t>Darf ich mein Platz nehmen?</t>
+  </si>
+  <si>
+    <t>Могу я занять свое место?</t>
+  </si>
+  <si>
+    <t>dürfen выражает разрешение или запрет. Переводится как “мочь, иметь разрешение, право”</t>
+  </si>
+  <si>
+    <t>Ich kann dieses Problem lösen.</t>
+  </si>
+  <si>
+    <t>Я могу (способен) решить эту проблему.</t>
+  </si>
+  <si>
+    <t>Wer kann mir das erklären?</t>
+  </si>
+  <si>
+    <t>Кто мне может это объяснить?</t>
+  </si>
+  <si>
+    <t>können выражает умение или физическую возможность. Переводится как “мочь, быть в состоянии”</t>
+  </si>
+  <si>
+    <t>mögen означает интерес к чему-то, любовь, переводится как “желать, любить”
+Важно:
+1. Используется еще и для выражения предположения. 2. В значении “любить, нравиться” почти перестал быть модальным и употребляется самостоятельно</t>
+  </si>
+  <si>
+    <t>Модальный глагол dürfen используется в следующих ситуациях:
+кому-либо что-либо разрешить</t>
+  </si>
+  <si>
+    <t>Модальный глагол dürfen используется в следующих ситуациях: кому-либо что-либо запретить</t>
+  </si>
+  <si>
+    <t>Модальный глагол dürfen используется в следующих ситуациях: что-либо предположить (в этом случае глагол dürfen стоит в форме Konjunktiv II)</t>
+  </si>
+  <si>
+    <t>Модальный глагол können используется в следующих ситуациях:
+кому-либо что-либо разрешить (так же, как и глагол dürfen)</t>
+  </si>
+  <si>
+    <t>Модальный глагол können используется в следующих ситуациях:
+уметь что-либо делать (что-то хорошо изучено)</t>
+  </si>
+  <si>
+    <t>Модальный глагол können используется в следующих ситуациях:
+иметь возможность (что-то сделать)</t>
+  </si>
+  <si>
+    <t>Модальный глагол können используется в следующих ситуациях:
+как следствие из чего-либо</t>
+  </si>
+  <si>
+    <t>Модальный глагол können используется в следующих ситуациях:
+неумение</t>
+  </si>
+  <si>
+    <t>Модальный глагол können используется в следующих ситуациях:
+невозможность</t>
+  </si>
+  <si>
+    <t>Модальный глагол können используется в следующих ситуациях:
+предположение /гипотетическая вероятность (глагол стоит в форме Konjunktiv II)</t>
+  </si>
+  <si>
+    <t>Модальный глагол mögen используется в следующих ситуациях:
+выражение отказа, не нравится что-то делать (часто без смыслового глагола)</t>
+  </si>
+  <si>
+    <t>Модальный глагол mögen используется в следующих ситуациях:
+выражение удовольствия, нравится что-то делать (часто без смыслового глагола)</t>
+  </si>
+  <si>
+    <t>Модальный глагол mögen используется в следующих ситуациях:
+нет настроения что-либо делать</t>
+  </si>
+  <si>
+    <t>Модальный глагол mögen используется в следующих ситуациях:
+выражение желания, вежливая просьба (смысловой глагол часто опускается, глагол mögen im Konjunktiv II – möchten)</t>
+  </si>
+  <si>
+    <t>Модальный глагол müssen используется в следующих ситуациях:
+выражение приказа</t>
+  </si>
+  <si>
+    <t>Модальный глагол müssen используется в следующих ситуациях:
+что – то не должны делать (nicht müssen = Negation + brauchen zu + Infinitiv)</t>
+  </si>
+  <si>
+    <t>Модальный глагол müssen используется в следующих ситуациях:
+необходимость</t>
+  </si>
+  <si>
+    <t>Модальный глагол müssen используется в следующих ситуациях:
+логический вывод</t>
+  </si>
+  <si>
+    <t>Модальный глагол sollen используется в следующих ситуациях:
+при передаче задания или поручения</t>
+  </si>
+  <si>
+    <t>Модальный глагол sollen используется в следующих ситуациях:
+выражение приказа</t>
+  </si>
+  <si>
+    <t>Модальный глагол sollen используется в следующих ситуациях:
+распространение слухов</t>
+  </si>
+  <si>
+    <t>Модальный глагол sollen используется в следующих ситуациях:
+соблюдение правил и закона</t>
+  </si>
+  <si>
+    <t>Модальный глагол sollen используется в следующих ситуациях:
+иметь намерение, цель</t>
+  </si>
+  <si>
+    <t>Модальный глагол wollen используется в следующих ситуациях:
+отказываться что-либо делать</t>
+  </si>
+  <si>
+    <t>Модальный глагол wollen используется в следующих ситуациях:
+высказывать пожелания и желания</t>
+  </si>
+  <si>
+    <t>Модальные глаголы можно использовать в предложении без смыслового глагола, но в этом случае в предложении должна четко просматриваться ситуация.</t>
+  </si>
+  <si>
+    <t>Müssen/sollen – долженствование, необходимость, потребность</t>
+  </si>
+  <si>
+    <t>Sie kann Deutsch sprechen</t>
+  </si>
+  <si>
+    <t>Она может (умеет) по-немецки говорить.</t>
+  </si>
+  <si>
+    <t>Er kann nicht kommen</t>
+  </si>
+  <si>
+    <t>Он не может прийти.</t>
+  </si>
+  <si>
+    <t>Ich kann morgen anrufen</t>
+  </si>
+  <si>
+    <t>Я могу завтра позвонить. (anrufen – звонить)</t>
+  </si>
+  <si>
+    <t>Ich muss nach Hause gehen</t>
+  </si>
+  <si>
+    <t>Я должен (мне нужно) домой идти. (nach Hause – домой)</t>
+  </si>
+  <si>
+    <t>Du musst deiner Mutter helfen</t>
+  </si>
+  <si>
+    <t>Ты должен своей матери помочь. (deiner Mutter – своей матери, helfen – помогать)</t>
+  </si>
+  <si>
+    <t>Wir müssen bis morgen warten</t>
+  </si>
+  <si>
+    <t>Мы должны до завтра подождать. (bis morgen – до завтра, warten – ждать)</t>
+  </si>
+  <si>
+    <t>Er will Arzt werden</t>
+  </si>
+  <si>
+    <t>Он хочет врачом стать. (der Arzt – врач, werden – становиться)</t>
+  </si>
+  <si>
+    <t>ch möchte Paul mitnehmen</t>
+  </si>
+  <si>
+    <t>Я хотел бы с собой Пауля взять. (mitnehmen – брать с собой)</t>
+  </si>
+  <si>
+    <t>Wir möchten mehr verdienen</t>
+  </si>
+  <si>
+    <t>Мы хотели бы больше зарабатывать. (mehr – больше)</t>
+  </si>
+  <si>
+    <t>Möchtet Ihr morgen zu uns kommen?</t>
+  </si>
+  <si>
+    <t>Вы бы хотели завтра к нам прийти? (zu uns – к нам)</t>
+  </si>
+  <si>
+    <t>Darf ich fragen?</t>
+  </si>
+  <si>
+    <t>Можно (разрешите) спросить? (fragen – спрашивать)</t>
+  </si>
+  <si>
+    <t>Darf ich reinkommen?</t>
+  </si>
+  <si>
+    <t>Можно (разрешено) мне войти? (reinkommen – входить)</t>
+  </si>
+  <si>
+    <t>Ich mag Eis</t>
+  </si>
+  <si>
+    <t>Я люблю мороженое. (das Eis – мороженое)</t>
+  </si>
+  <si>
+    <t>Er mag nicht arbeiten</t>
+  </si>
+  <si>
+    <t>Он не любит работать. (ему не нравится работать)</t>
+  </si>
+  <si>
+    <t>Ich weiß , dass ich nichts weiß</t>
+  </si>
+  <si>
+    <t>Я знаю, что я ничего не знаю.</t>
+  </si>
+  <si>
+    <t>Ich kann am Freitag anrufen .</t>
+  </si>
+  <si>
+    <t>Я могу в пятницу позвонить.</t>
+  </si>
+  <si>
+    <t>Ich soll alles vorbereiten .</t>
+  </si>
+  <si>
+    <t>Я должен все подготовить.</t>
+  </si>
+  <si>
+    <t>Sie können später alles tun (tun – делать) .</t>
+  </si>
+  <si>
+    <t>Они могут позже все сделать.</t>
+  </si>
+  <si>
+    <t>Du sollst dich so schnell wie möglich um diese Stelle bewerben</t>
+  </si>
+  <si>
+    <t>Ты должен как можно быстрее послать заявку на это место работы.</t>
+  </si>
+  <si>
+    <t>Sich bewerben</t>
+  </si>
+  <si>
+    <t>отсылать заявление при поиске работы (англ. to apply)</t>
+  </si>
+  <si>
+    <t>so schnell wie möglich</t>
+  </si>
+  <si>
+    <t>как можно быстрее .</t>
+  </si>
+  <si>
+    <t>это глагол, у которого есть частица -ся, т.н. возвратный глагол.</t>
+  </si>
+  <si>
+    <t>Können – мочь, уметь, быть в состоянии</t>
+  </si>
+  <si>
+    <t>Wollen – хотеть, möchten – желать (вежливая форма)</t>
+  </si>
+  <si>
+    <t>Dürfen – иметь разрешение</t>
+  </si>
+  <si>
+    <t>Mögen – любить, нравиться</t>
+  </si>
+  <si>
+    <t>Глагол sollen имеет следующие значения:
+1. требовать выполнение действия в соответствии с заповедями, законами, долгом и моралью:</t>
+  </si>
+  <si>
+    <t>Глагол sollen имеет следующие значения:
+2. подчеркивать, что действие выполняется по чьему-либо приказу или поручению:</t>
+  </si>
+  <si>
+    <t>Глагол müssen имеет следующие значения:
+1. быть вынуждаемым выполнять действие под давлением внешних обстоятельств или из внутренней потребности:</t>
+  </si>
+  <si>
+    <t>Глагол müssen имеет следующие значения:
+2. признавать неизбежность произошедшего:</t>
+  </si>
+  <si>
+    <t>Глагол wollen выражает твердое желание или сообщает о намерении сделать что-то, о планах на будущее:</t>
+  </si>
+  <si>
+    <t>Глагол mögen имеет значение любить что-то, испытывать симпатию к кому-то:</t>
+  </si>
+  <si>
+    <t>Глагол möchten* имеет следующие значения:
+1. иметь желание</t>
+  </si>
+  <si>
+    <t>Глагол möchten* имеет следующие значения:
+2. очень вежливо (но, как правило, настойчиво)</t>
+  </si>
+  <si>
+    <t>Модальный глагол können употребляется в ситуациях, когда нужно выразить:
+а) возможность, врожденную или приобретенную, совершить какое-либо действиe;</t>
+  </si>
+  <si>
+    <t>Endlich haben wir Urlaub. Jetzt können wir in die Berge fahren.</t>
+  </si>
+  <si>
+    <t>Модальный глагол können употребляется в ситуациях, когда нужно выразить:
+b) возможность, основанную на объективных условиях;</t>
+  </si>
+  <si>
+    <t>Модальный глагол können употребляется в ситуациях, когда нужно выразить:
+c) неуверенное предположение (степень уверенности около 50 %).</t>
+  </si>
+  <si>
+    <t>Модальный глагол dürfen употребляется, когда нужно выразить:
+а) разрешение;</t>
+  </si>
+  <si>
+    <t>Модальный глагол dürfen употребляется, когда нужно выразить:
+b) запрет, если используется вместе с отрицанием nicht (не);</t>
+  </si>
+  <si>
+    <t>Модальный глагол dürfen употребляется, когда нужно выразить:
+c) просьбу, требование, желание;</t>
+  </si>
+  <si>
+    <t>Модальный глагол müssen выражает:
+а) объективную необходимость, вызванную обстоятельствами, внешними условиями, сложившейся ситуацией;</t>
+  </si>
+  <si>
+    <t>Модальный глагол müssen выражает:
+b) необходимость в силу морального долга, внутреннего убеждения;</t>
+  </si>
+  <si>
+    <t>Модальный глагол müssen выражает:
+c) необходимость в силу закона;</t>
+  </si>
+  <si>
+    <t>Модальный глагол müssen выражает:
+d) необходимость, вызванную силами природы;</t>
+  </si>
+  <si>
+    <t>Модальный глагол müssen выражает:
+e) предположение, основанное на объективных фактах, наблюдениях и размышлениях (степень уверенности почти 100 %).);</t>
+  </si>
+  <si>
+    <t>Модальный глагол sollen выражает:
+а) поручения, приказания, просьбы;</t>
+  </si>
+  <si>
+    <t>Модальный глагол sollen выражает:
+b) цель, предназначение какого-нибудь предмета;</t>
+  </si>
+  <si>
+    <t>Модальный глагол sollen выражает:
+c) договоренность;</t>
+  </si>
+  <si>
+    <t>Модальный глагол sollen выражает:
+d) твердое обещание;</t>
+  </si>
+  <si>
+    <t>Модальный глагол sollen выражает:
+e) неуверенность в вопросах, которые говорящий задает сам себе;</t>
+  </si>
+  <si>
+    <t>Wollen используется, когда речь идет о:
+а) твердом желании, намерении, плане (собственная воля);</t>
+  </si>
+  <si>
+    <t>Wollen используется, когда речь идет о:
+b) непосредственно начинающемся действии;</t>
+  </si>
+  <si>
+    <t>Wollen используется, когда речь идет о:
+c) побуждении к совместной реализации действия;</t>
+  </si>
+  <si>
+    <t>Wollen используется, когда речь идет о:
+d) предназначении/цели (с неодушевленным подлежащим);</t>
+  </si>
+  <si>
+    <t>Wollen используется, когда речь идет о:
+e) указании на то, что не выполняется какая-то функция;</t>
+  </si>
+  <si>
+    <t>Mögen используется, когда речь идет о:
+a)      мягком некатегоричном желании;</t>
+  </si>
+  <si>
+    <t>Mögen используется, когда речь идет о:
+b) уступке;</t>
+  </si>
+  <si>
+    <t>Mögen используется, когда речь идет о:
+c) неуверенном предположении (степень уверенности около 50%),  допущении какой-либо возможности;</t>
+  </si>
+  <si>
+    <t>Если модальные глаголы употребляются самостоятельно, т.е. без инфинитива смыслового глагола, то его (инфинитив) можно, как правило, легко восстановить из контекста.</t>
+  </si>
+  <si>
+    <t>ch muss um 8.30 Uhr im Büro sein.</t>
+  </si>
+  <si>
+    <t>Ihr sollt die Arbeit heute abgeben! </t>
+  </si>
+  <si>
+    <t>Ich will eine Tasse Tee trinken.</t>
+  </si>
+  <si>
+    <t>Sie mag krank sein.</t>
+  </si>
+  <si>
+    <t>mögen означает интерес к чему-то, любовь, переводится как “желать, любить”
+Важно:
+2. В значении “любить, нравиться” почти перестал быть модальным и употребляется самостоятельно</t>
+  </si>
+  <si>
+    <t>möchten (глагол mögen в сослагательном наклонении Konjunktiv II), в отличии от модального глагола wollen, который выражает твердое желание, выражает желание, вежливую просьбу, и употребляется самостоятельно без другого глагола.</t>
+  </si>
+  <si>
+    <t> Ich will in Paris wohnen.</t>
+  </si>
+  <si>
+    <t>Я хочу жить в Париже. (И это не просто желание, а именно, намерение. Так оно и будет, раз «я этого хочу»).</t>
+  </si>
+  <si>
+    <t>Eugen will nicht mich abholen, er hat mir meine Schuld noch nicht verzeihen.</t>
+  </si>
+  <si>
+    <t>Ойген не хочет встретить меня, он еще не простил мне мою вину.</t>
+  </si>
+  <si>
+    <t>Laß mich ein wenig erholen.</t>
+  </si>
+  <si>
+    <t>Позволь мне немного отдохнуть.</t>
+  </si>
+  <si>
+    <t>Hier läßt sich rauchen.</t>
+  </si>
+  <si>
+    <t>Здесь разрешено курить.</t>
+  </si>
+  <si>
+    <t>Er möchte einen Vortrag zum Thema «Klimawandel» vorbereiten.</t>
+  </si>
+  <si>
+    <t>Он хотел бы подготовить доклад на тему «изменение климата».</t>
+  </si>
+  <si>
+    <t>Ich möchte nicht dieses Buch lesen, es ist so langweilig.</t>
+  </si>
+  <si>
+    <t>Wir können nach Russland fahren, denn wir haben genug Geld.</t>
+  </si>
+  <si>
+    <t>Мы можем поехать в Россию, потому что у нас достаточно денег.</t>
+  </si>
+  <si>
+    <t>Ich kann nicht zur Party gehen, weil ich mich nicht so gut fühle.</t>
+  </si>
+  <si>
+    <t>Я не могу пойти на вечеринку, потому что чувствую себя неважно.</t>
+  </si>
+  <si>
+    <t>Frau Müller, wenn Sie schon keinen Kopfschmerz haben, dann können Sie aufstehen.</t>
+  </si>
+  <si>
+    <t>Госпожа Мюллер, если у Вас больше не болит голова, то вы можете вставать.</t>
+  </si>
+  <si>
+    <t> Du darfst meinen Nachtisch aufessen. Ich bin schon satt.</t>
+  </si>
+  <si>
+    <t>Ты можешь съесть мой десерт, я уже сыта.</t>
+  </si>
+  <si>
+    <t>Der Brief darf nicht verloren gehen.</t>
+  </si>
+  <si>
+    <t>Письмо ни в коем случае не должно потеряться.</t>
+  </si>
+  <si>
+    <t>Man darf zum Frühstuck Haferflocken mit den Früchte essen.</t>
+  </si>
+  <si>
+    <t>Можно есть на завтрак овсяную кашу с фруктами.</t>
+  </si>
+  <si>
+    <t>Im Unterricht darf man nicht laut sprechen.</t>
+  </si>
+  <si>
+    <t>На уроке нельзя громко разговаривать.</t>
+  </si>
+  <si>
+    <t> Du sollst den Unterricht nicht versäumen, dann werden deine Noten wieder gut.</t>
+  </si>
+  <si>
+    <t>Ты должен не прогуливать занятия, тогда твои оценки снова станут хорошими.</t>
+  </si>
+  <si>
+    <t>Menschen sollen für Musik und Filme im Internet bezahlen, sonst verletzen sie die Urheberrechte.</t>
+  </si>
+  <si>
+    <t>Люди должны соблюдать авторские права и платить за музыку и фильмы в интернете.</t>
+  </si>
+  <si>
+    <t>Ich muss zum Arzt gehen, denn mein Husten ist schon zu stark.</t>
+  </si>
+  <si>
+    <t>Мне нужно пойти к врачу, потому что мой кашель уже слишком сильный.</t>
+  </si>
+  <si>
+    <t>Man muss viel arbeiten, um ein neues Auto zu kaufen.</t>
+  </si>
+  <si>
+    <t>Нужно много работать, чтобы купить новую машину.</t>
+  </si>
+  <si>
+    <t>Sollen — передает значение необходимости и долженствования, причем всегда субъективные, исходящие от говорящего лица.</t>
+  </si>
+  <si>
+    <t>Müssen — глагол выражает необходимость действия, чаще всего объективную или осознаваемую самим субъектом. Тут «müssen» — это не приказ, не совет, а именно констатация факта.</t>
+  </si>
+  <si>
+    <t>Dürfen — этот модальный глагол помогает выразить разрешение или запрет. В том числе можно выделить устойчивые выражения
+«man darf» - можно
+и особенно частое
+«man darf nicht» -нельзя.</t>
+  </si>
+  <si>
+    <t>Dürfen — этот модальный глагол помогает выразить разрешение или запрет.</t>
+  </si>
+  <si>
+    <t>Dürfen —этот модальный глагол помогает выразить разрешение или запрет.</t>
+  </si>
+  <si>
+    <t>Können — у глагола есть три базовых значения, в которых он употребляется. Разрешение (в разговоре):</t>
+  </si>
+  <si>
+    <t>Können —у глагола есть три базовых значения, в которых он употребляется. Способности субъекта (физические, творческие, психические):</t>
+  </si>
+  <si>
+    <t>Können — у глагола есть три базовых значения, в которых он употребляется. Объективная/ реальная возможность:</t>
+  </si>
+  <si>
+    <t>Mögen— чаще употребляется при выражении настоящего времени — это Konjuktiv в
+Präteritum «möchte».
+В прошедшем времени чаще используется форма глагола «wollen».</t>
+  </si>
+  <si>
+    <t>Mögen — чаще употребляется при выражении настоящего времени — это Konjuktiv в
+Präteritum «möchte».
+В прошедшем времени чаще используется форма глагола «wollen».</t>
+  </si>
+  <si>
+    <t> Wollen —глагол передает желание говорящего, которое от «mögen» отличается большей настойчивостью и прямотой. Не «я хотел бы», а «я хочу». В том числе со значением разрешения может употребляться и глагол, не входящий в разряд
+модальных, — «lassen».</t>
+  </si>
+  <si>
+    <t> Wollen —глагол передает желание говорящего, которое от «mögen» отличается большей настойчивостью и прямотой. Не «я хотел бы», а «я хочу».</t>
+  </si>
+  <si>
+    <t> Wollen —глагол передает желание говорящего, которое от «mögen» отличается большей настойчивостью и прямотой. Не «я хотел бы», а «я хочу».</t>
+  </si>
+  <si>
+    <t>möchten — (глагол mögen в сослагательном наклонении Konjunktiv II), в отличии от модального глагола wollen, который выражает твердое желание, выражает желание, вежливую просьбу, и употребляется самостоятельно без другого глагола.</t>
+  </si>
+  <si>
+    <t>mögen — означает интерес к чему-то, любовь, переводится как “желать, любить”
+Важно:
+1. Используется еще и для выражения предположения.</t>
+  </si>
+  <si>
+    <t>wollen —выражает твердое желание или решение совершить действие, переводится как “хотеть”</t>
+  </si>
+  <si>
+    <t>sollen — используется для выражения приказа, соблюдения правил или закона, переводится как “быть обязанным”</t>
+  </si>
+  <si>
+    <t>müssen —выражает необходимость выполнять то или иное действие под влиянием внутреннего давления (то есть, мы сами осознаем, что это сделать необходимо) , переводится как “быть должным, быть вынужденным”</t>
+  </si>
+  <si>
+    <t>Ich will schlafen.</t>
+  </si>
+  <si>
+    <t>Я хочу спать.</t>
+  </si>
+  <si>
+    <t>Willst du nach Berlin fahren?</t>
+  </si>
+  <si>
+    <t>Ты хочешь поехать в Берлин?</t>
+  </si>
+  <si>
+    <t>Wollen wir eine Pause machen!</t>
+  </si>
+  <si>
+    <t>Давайте сделаем перерыв!</t>
+  </si>
+  <si>
+    <t>Wollen wir tanzen! </t>
+  </si>
+  <si>
+    <t>Давайте потанцуем!</t>
+  </si>
+  <si>
+    <t>Sie können mit dem Bus fahren.</t>
+  </si>
+  <si>
+    <t>Вы можете поехать на автобусе.</t>
+  </si>
+  <si>
+    <t>Ich kann gut schwimmen.</t>
+  </si>
+  <si>
+    <t>Я хорошо умею плавать/Я хорошо плаваю.</t>
+  </si>
+  <si>
+    <t>Ich kann Russisch und Englisch.</t>
+  </si>
+  <si>
+    <t>Я говорю по-русски и по-английски.</t>
+  </si>
+  <si>
+    <t>Ich kann ein wenig Deutsch.</t>
+  </si>
+  <si>
+    <t>Я немного говорю по-немецки.</t>
+  </si>
+  <si>
+    <t>Мне нужно идти.</t>
+  </si>
+  <si>
+    <t>Alle Schüler müssen Hausaufgaben machen.</t>
+  </si>
+  <si>
+    <t>Все школьники должны делать уроки.</t>
+  </si>
+  <si>
+    <t>Sie sollen weniger essen.</t>
+  </si>
+  <si>
+    <t>Вам следует меньше есть.</t>
+  </si>
+  <si>
+    <t>Soll ich meinen Pass zeigen?</t>
+  </si>
+  <si>
+    <t>Мне нужно показать паспорт?</t>
+  </si>
+  <si>
+    <t>Christa muss viel arbeiten.</t>
+  </si>
+  <si>
+    <t>Криста должна много работать.</t>
+  </si>
+  <si>
+    <t>Christa soll viel arbeiten.</t>
+  </si>
+  <si>
+    <t>Кристе следует много работать.</t>
+  </si>
+  <si>
+    <t>Вам нужно пойти направо.</t>
+  </si>
+  <si>
+    <t>Soll ich gleich bezahlen?</t>
+  </si>
+  <si>
+    <t>Мне сразу оплатить?</t>
+  </si>
+  <si>
+    <t>Wo soll ich den Schlüssel lassen?</t>
+  </si>
+  <si>
+    <t>Где мне оставить ключ?</t>
+  </si>
+  <si>
+    <t>Ich kann dieses Buch kaufen.</t>
+  </si>
+  <si>
+    <t>Я могу купить эту книгу.</t>
+  </si>
+  <si>
+    <t>Sie kann Tennis spielen.</t>
+  </si>
+  <si>
+    <t>Она умеет играть в теннис.</t>
+  </si>
+  <si>
+    <t>Можно мне спросить?</t>
+  </si>
+  <si>
+    <t>Wir dürfen diese Bücher nehmen.</t>
+  </si>
+  <si>
+    <t>Нам можно брать эти книги.</t>
+  </si>
+  <si>
+    <t>Darf ich hinaus?</t>
+  </si>
+  <si>
+    <t>Можно выйти?</t>
+  </si>
+  <si>
+    <t>Darf ich gehen?</t>
+  </si>
+  <si>
+    <t>Мне можно идти?</t>
+  </si>
+  <si>
+    <t>Du darfst!</t>
+  </si>
+  <si>
+    <t>Тебе можно!</t>
+  </si>
+  <si>
+    <t>Ich mag Fisch. </t>
+  </si>
+  <si>
+    <t>Я люблю рыбу.</t>
+  </si>
+  <si>
+    <t>Magst du Schwarzbrot?</t>
+  </si>
+  <si>
+    <t>Ты любишь черный хлеб?</t>
+  </si>
+  <si>
+    <t>Ich möchte diese Jacke kaufen.</t>
+  </si>
+  <si>
+    <t>Я хотел(а) бы купить эту куртку.</t>
+  </si>
+  <si>
+    <t>Möchten Sie weiter gehen oder bleiben wir hier? </t>
+  </si>
+  <si>
+    <t>Вы бы хотели идти дальше, или мы останемся здесь?</t>
+  </si>
+  <si>
+    <t>Глагол wollen употребляется при обычном волеизъявлении</t>
+  </si>
+  <si>
+    <t>Глагол wollen употребляется при обычном волеизъявлении:Кроме того, этот глагол участвует в образовании императива 1-е л. мн.ч. «wollen wir» - давайте (не путайте эту форму с wir wollen - мы хотим):</t>
+  </si>
+  <si>
+    <t>Глагол können означает возможность, способность, умение:</t>
+  </si>
+  <si>
+    <t>С обозначениями языков глагол können может употребляться без другого глагола:</t>
+  </si>
+  <si>
+    <t>Глаголы müssen и sollen совпадают по основному значению - быть должным, долженствовать. Но оттенки значения у этих глаголов совершенно разные. Müssen означает необходимость как результат внутреннего убеждения или объективных обстоятельств (ср. английский глагол must):</t>
+  </si>
+  <si>
+    <t>Sollen означает необходимость как следствие каких-либо соображений, правил и т.д. и выражает рекомендацию (ср. английский глагол should). На русский язык этот глагол переводится безличным оборотом «следует»:</t>
+  </si>
+  <si>
+    <t>Глагол können означает возможность как результат свободного самоопределения:</t>
+  </si>
+  <si>
+    <t>Глагол dürfen означает возможность как результат разрешения, позволения:</t>
+  </si>
+  <si>
+    <t>Глагол dürfen означает возможность как результат разрешения, позволения. В различных бытовых вопросах употребляется именно dürfen:</t>
+  </si>
+  <si>
+    <t>Глагол mögen - пожалуй, самый своеобразный из всех модальных глаголов. Во-первых, в настоящем времени он означает «любить, нравиться» и т.п.:</t>
+  </si>
+  <si>
+    <t>Глагол mögen - пожалуй, самый своеобразный из всех модальных глаголов. Во-первых, в настоящем времени он означает «любить, нравиться» и т.п..Во-вторых, этот глагол большей частью употребляется в сослагательном наклонении прошедшего времени (претерита) и тогда означает пожелание, выраженное в вежливой форме:</t>
+  </si>
+  <si>
+    <t>Кристе приходится много работать</t>
+  </si>
+  <si>
+    <t>Кристе следует много работать.</t>
+  </si>
+  <si>
+    <t>На различие глаголов müssen и sollen нужно обращать особое внимание в быту, поскольку в целом ряде привычных ситуаций употребляется именно sollen:</t>
+  </si>
+  <si>
+    <t>Der Junge kann Bücher auf Deutsch lesen.</t>
+  </si>
+  <si>
+    <t>Мальчик умеет читать книги на немецком языке. </t>
+  </si>
+  <si>
+    <t>Darf ich ein Buch auf Deutsch lesen?</t>
+  </si>
+  <si>
+    <t>Можно я почитаю книгу на немецком языке? </t>
+  </si>
+  <si>
+    <t>Du musst ständig Bücher auf Deutsch lesen.</t>
+  </si>
+  <si>
+    <t>Ты должен постоянно читать книги на немецком языке.</t>
+  </si>
+  <si>
+    <t>Wir sollen mehr Bücher auf Deutsch lesen.</t>
+  </si>
+  <si>
+    <t>Нам следует читать больше книг на немецком языке. </t>
+  </si>
+  <si>
+    <t>Sie will keine Bücher auf Deutsch lesen.</t>
+  </si>
+  <si>
+    <t>Она не хочет читать книги на немецком языке. </t>
+  </si>
+  <si>
+    <t>Ich möchte das Buch lieber auf Deutsch lesen.</t>
+  </si>
+  <si>
+    <t>Я бы предпочла читать книгу на немецком языке.</t>
+  </si>
+  <si>
+    <t>Wir können schnell laufen und hoch springen.</t>
+  </si>
+  <si>
+    <t>Мы умеем быстро бегать и высоко прыгать. </t>
+  </si>
+  <si>
+    <t>Kann dein Bruder schwimmen?</t>
+  </si>
+  <si>
+    <t>Твой брат умеет плавать?</t>
+  </si>
+  <si>
+    <t>Meine Katze kann keine Mäuse fangen.</t>
+  </si>
+  <si>
+    <t>Моя кошка не умеет ловить мышей.</t>
+  </si>
+  <si>
+    <t>Darf ich mit Freunden ins Kino gehen?</t>
+  </si>
+  <si>
+    <t>Можно мне пойти в кино с друзьями? </t>
+  </si>
+  <si>
+    <t>Можно мне пойти в кино с друзьями?</t>
+  </si>
+  <si>
+    <t>Wir dürfen nicht rauchen oder Alkohol trinken.</t>
+  </si>
+  <si>
+    <t>Я должен сегодня навестить мою старую бабушку.</t>
+  </si>
+  <si>
+    <t>Muss ich so viele Wörter lernen?</t>
+  </si>
+  <si>
+    <t>Должна ли я учить так много слов? </t>
+  </si>
+  <si>
+    <t>Du musst nicht alleine dorthin gehen.</t>
+  </si>
+  <si>
+    <t>Ты не должен ходить туда один.</t>
+  </si>
+  <si>
+    <t>Du sollst mehr Sport treiben, das ist gut.</t>
+  </si>
+  <si>
+    <t>Тебе следует больше заниматься спортом, это полезно.</t>
+  </si>
+  <si>
+    <t>Sollen wir uns diesen Film ansehen oder ist er nicht interessant?</t>
+  </si>
+  <si>
+    <t>Следует ли нам посмотреть этот фильм или он не интересный?</t>
+  </si>
+  <si>
+    <t>Sie sollte nicht so laut sprechen: die Kinder schlafen.</t>
+  </si>
+  <si>
+    <t>Ей не следует так громко разговаривать: дети спят.</t>
+  </si>
+  <si>
+    <t>Wir wollen ein neues Haus kaufen, haben aber immer noch nicht genug Geld.</t>
+  </si>
+  <si>
+    <t>Мы хотим купить новый дом, но у нас еще нет достаточной суммы денег.</t>
+  </si>
+  <si>
+    <t>Willst du mit mir in den Park kommen?</t>
+  </si>
+  <si>
+    <t>Ты хочешь пойти со мной в парк? </t>
+  </si>
+  <si>
+    <t>Ich will diese Person nicht mehr sehen.</t>
+  </si>
+  <si>
+    <t>Я не хочу больше видеть этого человека.</t>
+  </si>
+  <si>
+    <t>Ich möchte gerne eine Tasse Kaffee nach der Arbeit trinken.</t>
+  </si>
+  <si>
+    <t>Я бы хотел выпить чашечку кофе после работы.</t>
+  </si>
+  <si>
+    <t>Möchtest du abends am Flussufer entlang spazieren gehen?</t>
+  </si>
+  <si>
+    <t>Не хотела бы ты прогуляться по берегу реки вечером?</t>
+  </si>
+  <si>
+    <t>Sie möchte ihn noch einmal nicht wiedersehen.</t>
+  </si>
+  <si>
+    <t>Она бы не хотела встретиться с ним еще раз. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4965,6 +6923,13 @@
       <color rgb="FF181818"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5048,7 +7013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5117,6 +7082,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5397,11 +7371,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G500"/>
+  <dimension ref="A1:I500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="189" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B413" sqref="B413"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="189" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5411,12 +7385,14 @@
     <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.44140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="22.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1482</v>
       </c>
@@ -5433,7 +7409,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1462</v>
       </c>
@@ -5449,8 +7425,14 @@
       <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="24" t="s">
+        <v>1613</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1463</v>
       </c>
@@ -5466,8 +7448,14 @@
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="25" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1462</v>
       </c>
@@ -5483,8 +7471,14 @@
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="25" t="s">
+        <v>1617</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>963</v>
@@ -5496,8 +7490,14 @@
       <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="25" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>1461</v>
       </c>
@@ -5513,8 +7513,14 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="25" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>965</v>
@@ -5526,8 +7532,14 @@
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="25" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>1461</v>
       </c>
@@ -5543,8 +7555,14 @@
       <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="25" t="s">
+        <v>1625</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>1462</v>
       </c>
@@ -5560,8 +7578,14 @@
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="25" t="s">
+        <v>1627</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5577,11 +7601,17 @@
       <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="25" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5597,8 +7627,14 @@
       <c r="E11" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="25" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5614,8 +7650,14 @@
       <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="25" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5631,8 +7673,14 @@
       <c r="E13" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="25" t="s">
+        <v>1635</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5648,8 +7696,14 @@
       <c r="E14" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="25" t="s">
+        <v>1637</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5665,8 +7719,14 @@
       <c r="E15" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="25" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5680,8 +7740,14 @@
       <c r="E16" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G16" s="25" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5697,8 +7763,14 @@
       <c r="E17" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="25" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5714,11 +7786,17 @@
       <c r="E18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="25" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5734,8 +7812,14 @@
       <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G19" s="25" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5751,8 +7835,14 @@
       <c r="E20" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="25" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5768,8 +7858,14 @@
       <c r="E21" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="25" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5785,8 +7881,14 @@
       <c r="E22" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G22" s="25" t="s">
+        <v>1651</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5802,8 +7904,14 @@
       <c r="E23" s="10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="25" t="s">
+        <v>1653</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5819,8 +7927,14 @@
       <c r="E24" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="25" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5836,8 +7950,14 @@
       <c r="E25" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G25" s="25" t="s">
+        <v>1656</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5853,8 +7973,14 @@
       <c r="E26" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="25" t="s">
+        <v>1658</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5870,8 +7996,14 @@
       <c r="E27" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="25" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5887,8 +8019,14 @@
       <c r="E28" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G28" s="25" t="s">
+        <v>1662</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5904,8 +8042,14 @@
       <c r="E29" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="25" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
         <v>48</v>
@@ -5917,11 +8061,17 @@
       <c r="E30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="25" t="s">
+        <v>1664</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
         <v>51</v>
@@ -5933,8 +8083,14 @@
       <c r="E31" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="25" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
         <v>54</v>
@@ -5946,8 +8102,14 @@
       <c r="E32" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G32" s="25" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5963,8 +8125,14 @@
       <c r="E33" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G33" s="25" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5980,8 +8148,17 @@
       <c r="E34" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G34" s="26" t="s">
+        <v>1820</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>1821</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>1461</v>
       </c>
@@ -5997,8 +8174,17 @@
       <c r="E35" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G35" s="26" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6014,8 +8200,17 @@
       <c r="E36" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="26" t="s">
+        <v>1824</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>1825</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6031,8 +8226,17 @@
       <c r="E37" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G37" s="26" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>1827</v>
+      </c>
+      <c r="I37" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6048,8 +8252,17 @@
       <c r="E38" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G38" s="26" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6065,8 +8278,17 @@
       <c r="E39" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="26" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>1831</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6082,8 +8304,17 @@
       <c r="E40" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G40" s="26" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>1833</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>1463</v>
       </c>
@@ -6099,8 +8330,17 @@
       <c r="E41" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G41" s="26" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>1835</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6116,11 +8356,20 @@
       <c r="E42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="26" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>1837</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6136,8 +8385,17 @@
       <c r="E43" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G43" s="26" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6153,8 +8411,17 @@
       <c r="E44" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G44" s="26" t="s">
+        <v>1840</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>1841</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6170,8 +8437,17 @@
       <c r="E45" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G45" s="26" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6187,11 +8463,20 @@
       <c r="E46" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G46" s="26" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6207,8 +8492,17 @@
       <c r="E47" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G47" s="26" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>1846</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6224,8 +8518,14 @@
       <c r="E48" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G48" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6241,8 +8541,14 @@
       <c r="E49" s="11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G49" s="1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6258,11 +8564,17 @@
       <c r="E50" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G50" s="26" t="s">
+        <v>1852</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6278,8 +8590,14 @@
       <c r="E51" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G51" s="26" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6295,8 +8613,14 @@
       <c r="E52" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="26" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6312,8 +8636,14 @@
       <c r="E53" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G53" s="26" t="s">
+        <v>1858</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
         <v>101</v>
@@ -6325,8 +8655,17 @@
       <c r="E54" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G54" s="26" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>1861</v>
+      </c>
+      <c r="I54" s="26" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6342,8 +8681,17 @@
       <c r="E55" s="10" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G55" s="26" t="s">
+        <v>1862</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I55" s="26" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6359,8 +8707,17 @@
       <c r="E56" s="10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G56" s="26" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I56" s="26" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>1463</v>
       </c>
@@ -6376,8 +8733,17 @@
       <c r="E57" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G57" s="26" t="s">
+        <v>1866</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>1867</v>
+      </c>
+      <c r="I57" s="26" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6393,8 +8759,17 @@
       <c r="E58" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G58" s="26" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6410,8 +8785,17 @@
       <c r="E59" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G59" s="26" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>1871</v>
+      </c>
+      <c r="I59" s="26" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
         <v>115</v>
@@ -6423,11 +8807,20 @@
       <c r="E60" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G60" s="26" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>1873</v>
+      </c>
+      <c r="I60" s="26" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
         <v>118</v>
@@ -6439,8 +8832,17 @@
       <c r="E61" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G61" s="26" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
         <v>121</v>
@@ -6452,8 +8854,17 @@
       <c r="E62" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G62" s="26" t="s">
+        <v>1876</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>1877</v>
+      </c>
+      <c r="I62" s="26" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
         <v>124</v>
@@ -6465,8 +8876,17 @@
       <c r="E63" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G63" s="26" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>1879</v>
+      </c>
+      <c r="I63" s="26" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
         <v>127</v>
@@ -6478,8 +8898,17 @@
       <c r="E64" s="10" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="26" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>1849</v>
+      </c>
+      <c r="I64" s="26" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
         <v>130</v>
@@ -6491,8 +8920,17 @@
       <c r="E65" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="26" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I65" s="26" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
         <v>133</v>
@@ -6504,8 +8942,17 @@
       <c r="E66" s="10" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G66" s="26" t="s">
+        <v>1852</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>1853</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
         <v>136</v>
@@ -6517,8 +8964,17 @@
       <c r="E67" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G67" s="26" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
         <v>139</v>
@@ -6530,8 +8986,17 @@
       <c r="E68" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G68" s="26" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>1881</v>
+      </c>
+      <c r="I68" s="26" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
         <v>142</v>
@@ -6543,8 +9008,17 @@
       <c r="E69" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G69" s="26" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I69" s="26" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
         <v>145</v>
@@ -6556,8 +9030,17 @@
       <c r="E70" s="10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G70" s="26" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>1884</v>
+      </c>
+      <c r="I70" s="26" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
         <v>148</v>
@@ -6569,8 +9052,17 @@
       <c r="E71" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G71" s="26" t="s">
+        <v>1885</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I71" s="26" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12"/>
       <c r="B72" s="12" t="s">
         <v>151</v>
@@ -6582,8 +9074,17 @@
       <c r="E72" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G72" s="26" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H72" s="26" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I72" s="26" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6599,11 +9100,20 @@
       <c r="E73" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G73" s="26" t="s">
+        <v>1889</v>
+      </c>
+      <c r="H73" s="26" t="s">
+        <v>1890</v>
+      </c>
+      <c r="I73" s="26" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6619,8 +9129,17 @@
       <c r="E74" s="10" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G74" s="26" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H74" s="26" t="s">
+        <v>1892</v>
+      </c>
+      <c r="I74" s="26" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6636,8 +9155,17 @@
       <c r="E75" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G75" s="26" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H75" s="26" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I75" s="26" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6653,8 +9181,17 @@
       <c r="E76" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G76" s="26" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H76" s="26" t="s">
+        <v>1896</v>
+      </c>
+      <c r="I76" s="26" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6670,8 +9207,17 @@
       <c r="E77" s="10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G77" s="26" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H77" s="26" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I77" s="26" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6687,8 +9233,17 @@
       <c r="E78" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G78" s="26" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H78" s="26" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I78" s="26" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>1463</v>
       </c>
@@ -6704,8 +9259,17 @@
       <c r="E79" s="10" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G79" s="26" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H79" s="26" t="s">
+        <v>1902</v>
+      </c>
+      <c r="I79" s="26" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6721,8 +9285,17 @@
       <c r="E80" s="10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G80" s="26" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>1904</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6738,8 +9311,17 @@
       <c r="E81" s="10" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G81" s="26" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H81" s="26" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6755,8 +9337,17 @@
       <c r="E82" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G82" s="26" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H82" s="26" t="s">
+        <v>1908</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>1462</v>
       </c>
@@ -6772,8 +9363,17 @@
       <c r="E83" s="10" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G83" s="26" t="s">
+        <v>1909</v>
+      </c>
+      <c r="H83" s="26" t="s">
+        <v>1910</v>
+      </c>
+      <c r="I83" s="26" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6789,11 +9389,20 @@
       <c r="E84" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G84" s="26" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H84" s="26" t="s">
+        <v>1912</v>
+      </c>
+      <c r="I84" s="26" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6809,8 +9418,17 @@
       <c r="E85" s="14" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G85" s="26" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H85" s="26" t="s">
+        <v>1914</v>
+      </c>
+      <c r="I85" s="26" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6826,8 +9444,17 @@
       <c r="E86" s="14" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G86" s="26" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H86" s="26" t="s">
+        <v>1916</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6841,8 +9468,17 @@
       <c r="E87" s="14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G87" s="26" t="s">
+        <v>1917</v>
+      </c>
+      <c r="H87" s="26" t="s">
+        <v>1918</v>
+      </c>
+      <c r="I87" s="26" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6858,8 +9494,17 @@
       <c r="E88" s="14" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G88" s="26" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H88" s="26" t="s">
+        <v>1920</v>
+      </c>
+      <c r="I88" s="26" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6875,8 +9520,17 @@
       <c r="E89" s="14" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G89" s="26" t="s">
+        <v>1921</v>
+      </c>
+      <c r="H89" s="26" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I89" s="26" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6892,8 +9546,17 @@
       <c r="E90" s="14" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G90" s="26" t="s">
+        <v>1923</v>
+      </c>
+      <c r="H90" s="26" t="s">
+        <v>1924</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6909,8 +9572,17 @@
       <c r="E91" s="14" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G91" s="26" t="s">
+        <v>1925</v>
+      </c>
+      <c r="H91" s="26" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I91" s="26" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6926,8 +9598,17 @@
       <c r="E92" s="14" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G92" s="26" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H92" s="26" t="s">
+        <v>1928</v>
+      </c>
+      <c r="I92" s="26" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6943,8 +9624,17 @@
       <c r="E93" s="14" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G93" s="26" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H93" s="26" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I93" s="26" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6958,8 +9648,17 @@
       <c r="E94" s="14" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G94" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="I94" s="26" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6975,8 +9674,17 @@
       <c r="E95" s="14" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G95" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="I95" s="26" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>1461</v>
       </c>
@@ -6990,8 +9698,17 @@
       <c r="E96" s="14" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G96" s="26" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H96" s="26" t="s">
+        <v>1997</v>
+      </c>
+      <c r="I96" s="26" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7007,8 +9724,17 @@
       <c r="E97" s="14" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G97" s="26" t="s">
+        <v>1998</v>
+      </c>
+      <c r="H97" s="26" t="s">
+        <v>1999</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7024,8 +9750,17 @@
       <c r="E98" s="16" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G98" s="26" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H98" s="26" t="s">
+        <v>2001</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7041,11 +9776,20 @@
       <c r="E99" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="F99" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G99" s="26" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H99" s="26" t="s">
+        <v>2003</v>
+      </c>
+      <c r="I99" s="26" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7061,8 +9805,17 @@
       <c r="E100" s="14" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G100" s="26" t="s">
+        <v>2004</v>
+      </c>
+      <c r="H100" s="26" t="s">
+        <v>2005</v>
+      </c>
+      <c r="I100" s="26" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7078,8 +9831,17 @@
       <c r="E101" s="14" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G101" s="26" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H101" s="26" t="s">
+        <v>2007</v>
+      </c>
+      <c r="I101" s="26" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7095,8 +9857,17 @@
       <c r="E102" s="14" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G102" s="26" t="s">
+        <v>2008</v>
+      </c>
+      <c r="H102" s="26" t="s">
+        <v>2009</v>
+      </c>
+      <c r="I102" s="26" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7112,8 +9883,17 @@
       <c r="E103" s="14" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G103" s="26" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H103" s="26" t="s">
+        <v>2011</v>
+      </c>
+      <c r="I103" s="26" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7129,8 +9909,17 @@
       <c r="E104" s="14" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G104" s="26" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>2013</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7146,8 +9935,17 @@
       <c r="E105" s="14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G105" s="26" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H105" s="26" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7163,8 +9961,17 @@
       <c r="E106" s="16" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G106" s="26" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H106" s="26" t="s">
+        <v>2017</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7178,11 +9985,20 @@
       <c r="E107" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G107" s="26" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H107" s="26" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7198,8 +10014,14 @@
       <c r="E108" s="14" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G108" s="26" t="s">
+        <v>2020</v>
+      </c>
+      <c r="H108" s="26" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7215,8 +10037,14 @@
       <c r="E109" s="14" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G109" s="26" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H109" s="26" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7232,8 +10060,14 @@
       <c r="E110" s="14" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G110" s="26" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H110" s="26" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7249,8 +10083,14 @@
       <c r="E111" s="14" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G111" s="26" t="s">
+        <v>2026</v>
+      </c>
+      <c r="H111" s="26" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7266,8 +10106,14 @@
       <c r="E112" s="14" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G112" s="26" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H112" s="26" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7283,8 +10129,14 @@
       <c r="E113" s="14" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G113" s="26" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H113" s="26" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7300,8 +10152,14 @@
       <c r="E114" s="14" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G114" s="26" t="s">
+        <v>2032</v>
+      </c>
+      <c r="H114" s="26" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7317,8 +10175,14 @@
       <c r="E115" s="14" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G115" s="26" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H115" s="26" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7334,8 +10198,17 @@
       <c r="E116" s="14" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G116" s="26" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H116" s="26" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I116" s="26" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7349,8 +10222,17 @@
       <c r="E117" s="14" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G117" s="26" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H117" s="26" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I117" s="26" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7366,8 +10248,17 @@
       <c r="E118" s="14" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G118" s="26" t="s">
+        <v>1956</v>
+      </c>
+      <c r="H118" s="26" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I118" s="26" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7383,8 +10274,17 @@
       <c r="E119" s="14" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G119" s="26" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H119" s="26" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I119" s="26" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7400,8 +10300,17 @@
       <c r="E120" s="14" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G120" s="26" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H120" s="26" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I120" s="26" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7417,8 +10326,17 @@
       <c r="E121" s="16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G121" s="26" t="s">
+        <v>2073</v>
+      </c>
+      <c r="H121" s="26" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I121" s="26" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7434,11 +10352,20 @@
       <c r="E122" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="F122" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G122" s="26" t="s">
+        <v>2074</v>
+      </c>
+      <c r="H122" s="26" t="s">
+        <v>1940</v>
+      </c>
+      <c r="I122" s="26" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7454,8 +10381,17 @@
       <c r="E123" s="14" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G123" s="26" t="s">
+        <v>2075</v>
+      </c>
+      <c r="H123" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="I123" s="26" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7471,8 +10407,17 @@
       <c r="E124" s="14" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G124" s="28" t="s">
+        <v>2076</v>
+      </c>
+      <c r="H124" s="28" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I124" s="26" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7486,8 +10431,17 @@
       <c r="E125" s="14" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G125" s="28" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H125" s="28" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I125" s="26" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7503,8 +10457,17 @@
       <c r="E126" s="14" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G126" s="28" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H126" s="28" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I126" s="26" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7520,8 +10483,17 @@
       <c r="E127" s="14" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G127" s="28" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H127" s="28" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I127" s="26" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7537,8 +10509,17 @@
       <c r="E128" s="14" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G128" s="26" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H128" s="26" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I128" s="26" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7552,8 +10533,17 @@
       <c r="E129" s="14" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G129" s="26" t="s">
+        <v>1961</v>
+      </c>
+      <c r="H129" s="26" t="s">
+        <v>1962</v>
+      </c>
+      <c r="I129" s="26" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7569,8 +10559,17 @@
       <c r="E130" s="14" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G130" s="26" t="s">
+        <v>1956</v>
+      </c>
+      <c r="H130" s="26" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I130" s="26" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7586,8 +10585,17 @@
       <c r="E131" s="14" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G131" s="26" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H131" s="26" t="s">
+        <v>1932</v>
+      </c>
+      <c r="I131" s="26" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7603,8 +10611,17 @@
       <c r="E132" s="14" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G132" s="26" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H132" s="26" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I132" s="26" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7620,8 +10637,17 @@
       <c r="E133" s="14" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G133" s="26" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H133" s="26" t="s">
+        <v>1936</v>
+      </c>
+      <c r="I133" s="26" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7637,8 +10663,17 @@
       <c r="E134" s="14" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G134" s="26" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H134" s="26" t="s">
+        <v>1938</v>
+      </c>
+      <c r="I134" s="26" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7654,8 +10689,17 @@
       <c r="E135" s="14" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G135" s="26" t="s">
+        <v>1939</v>
+      </c>
+      <c r="H135" s="26" t="s">
+        <v>1940</v>
+      </c>
+      <c r="I135" s="26" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7671,8 +10715,17 @@
       <c r="E136" s="14" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G136" s="26" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H136" s="26" t="s">
+        <v>1942</v>
+      </c>
+      <c r="I136" s="26" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7688,8 +10741,17 @@
       <c r="E137" s="14" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G137" s="26" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H137" s="26" t="s">
+        <v>1944</v>
+      </c>
+      <c r="I137" s="26" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7705,8 +10767,17 @@
       <c r="E138" s="14" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G138" s="26" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H138" s="26" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I138" s="26" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7722,8 +10793,17 @@
       <c r="E139" s="14" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G139" s="26" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H139" s="26" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I139" s="26" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7739,8 +10819,17 @@
       <c r="E140" s="14" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G140" s="26" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H140" s="26" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I140" s="26" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7756,8 +10845,17 @@
       <c r="E141" s="14" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G141" s="26" t="s">
+        <v>2079</v>
+      </c>
+      <c r="H141" s="26" t="s">
+        <v>2080</v>
+      </c>
+      <c r="I141" s="26" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7773,8 +10871,17 @@
       <c r="E142" s="16" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G142" s="26" t="s">
+        <v>2081</v>
+      </c>
+      <c r="H142" s="26" t="s">
+        <v>2082</v>
+      </c>
+      <c r="I142" s="26" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7790,8 +10897,17 @@
       <c r="E143" s="14" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G143" s="26" t="s">
+        <v>2083</v>
+      </c>
+      <c r="H143" s="26" t="s">
+        <v>2084</v>
+      </c>
+      <c r="I143" s="26" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7807,8 +10923,17 @@
       <c r="E144" s="14" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G144" s="26" t="s">
+        <v>2085</v>
+      </c>
+      <c r="H144" s="26" t="s">
+        <v>2086</v>
+      </c>
+      <c r="I144" s="26" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7824,8 +10949,17 @@
       <c r="E145" s="14" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G145" s="26" t="s">
+        <v>2087</v>
+      </c>
+      <c r="H145" s="26" t="s">
+        <v>2088</v>
+      </c>
+      <c r="I145" s="26" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7841,8 +10975,17 @@
       <c r="E146" s="14" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G146" s="26" t="s">
+        <v>2089</v>
+      </c>
+      <c r="H146" s="26" t="s">
+        <v>2089</v>
+      </c>
+      <c r="I146" s="26" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7858,8 +11001,17 @@
       <c r="E147" s="14" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G147" s="26" t="s">
+        <v>2090</v>
+      </c>
+      <c r="H147" s="26" t="s">
+        <v>2091</v>
+      </c>
+      <c r="I147" s="26" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7875,8 +11027,17 @@
       <c r="E148" s="14" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G148" s="26" t="s">
+        <v>2092</v>
+      </c>
+      <c r="H148" s="26" t="s">
+        <v>2093</v>
+      </c>
+      <c r="I148" s="26" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7892,8 +11053,17 @@
       <c r="E149" s="14" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G149" s="26" t="s">
+        <v>2094</v>
+      </c>
+      <c r="H149" s="26" t="s">
+        <v>2095</v>
+      </c>
+      <c r="I149" s="26" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7909,8 +11079,17 @@
       <c r="E150" s="14" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G150" s="26" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H150" s="26" t="s">
+        <v>2097</v>
+      </c>
+      <c r="I150" s="26" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="12" t="s">
         <v>1463</v>
       </c>
@@ -7926,8 +11105,17 @@
       <c r="E151" s="14" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G151" s="26" t="s">
+        <v>2098</v>
+      </c>
+      <c r="H151" s="26" t="s">
+        <v>2099</v>
+      </c>
+      <c r="I151" s="26" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7943,8 +11131,17 @@
       <c r="E152" s="16" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G152" s="26" t="s">
+        <v>2100</v>
+      </c>
+      <c r="H152" s="26" t="s">
+        <v>2101</v>
+      </c>
+      <c r="I152" s="26" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7960,11 +11157,20 @@
       <c r="E153" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="F153" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G153" s="26" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H153" s="26" t="s">
+        <v>2103</v>
+      </c>
+      <c r="I153" s="26" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="9" t="s">
         <v>1462</v>
       </c>
@@ -7980,8 +11186,17 @@
       <c r="E154" s="14" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G154" s="26" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H154" s="26" t="s">
+        <v>2105</v>
+      </c>
+      <c r="I154" s="26" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="9" t="s">
         <v>1461</v>
       </c>
@@ -7995,8 +11210,17 @@
       <c r="E155" s="14" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G155" s="26" t="s">
+        <v>2106</v>
+      </c>
+      <c r="H155" s="26" t="s">
+        <v>2107</v>
+      </c>
+      <c r="I155" s="26" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8012,8 +11236,17 @@
       <c r="E156" s="14" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G156" s="26" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H156" s="26" t="s">
+        <v>2109</v>
+      </c>
+      <c r="I156" s="26" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8029,8 +11262,17 @@
       <c r="E157" s="14" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G157" s="26" t="s">
+        <v>2110</v>
+      </c>
+      <c r="H157" s="26" t="s">
+        <v>2111</v>
+      </c>
+      <c r="I157" s="26" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8046,8 +11288,17 @@
       <c r="E158" s="14" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G158" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="I158" s="26" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8063,8 +11314,17 @@
       <c r="E159" s="14" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G159" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="I159" s="26" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8080,8 +11340,17 @@
       <c r="E160" s="16" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G160" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="I160" s="26" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8097,11 +11366,20 @@
       <c r="E161" s="14" t="s">
         <v>280</v>
       </c>
+      <c r="F161" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="G161" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2136</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="I161" s="26" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8117,8 +11395,17 @@
       <c r="E162" s="14" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G162" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="I162" s="26" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8134,8 +11421,17 @@
       <c r="E163" s="14" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G163" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="I163" s="26" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8151,8 +11447,17 @@
       <c r="E164" s="14" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G164" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I164" s="26" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8168,8 +11473,17 @@
       <c r="E165" s="14" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G165" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="I165" s="26" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8185,8 +11499,17 @@
       <c r="E166" s="14" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G166" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="I166" s="26" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8202,8 +11525,17 @@
       <c r="E167" s="14" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G167" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="I167" s="26" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8219,8 +11551,17 @@
       <c r="E168" s="14" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G168" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="I168" s="26" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8234,8 +11575,17 @@
       <c r="E169" s="14" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G169" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I169" s="26" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8249,8 +11599,17 @@
       <c r="E170" s="14" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G170" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8266,8 +11625,17 @@
       <c r="E171" s="16" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G171" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8283,11 +11651,20 @@
       <c r="E172" s="14" t="s">
         <v>292</v>
       </c>
+      <c r="F172" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="G172" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2156</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I172" s="26" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8303,8 +11680,17 @@
       <c r="E173" s="14" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G173" s="1" t="s">
+        <v>2158</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="I173" s="26" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8320,8 +11706,17 @@
       <c r="E174" s="14" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G174" s="1" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="I174" s="26" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8337,8 +11732,17 @@
       <c r="E175" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G175" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="H175" s="26" t="s">
+        <v>2163</v>
+      </c>
+      <c r="I175" s="26" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8354,8 +11758,17 @@
       <c r="E176" s="14" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G176" s="1" t="s">
+        <v>2164</v>
+      </c>
+      <c r="H176" s="26" t="s">
+        <v>2165</v>
+      </c>
+      <c r="I176" s="26" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8371,8 +11784,17 @@
       <c r="E177" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G177" s="1" t="s">
+        <v>2012</v>
+      </c>
+      <c r="H177" s="26" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I177" s="26" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8388,8 +11810,17 @@
       <c r="E178" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G178" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="H178" s="26" t="s">
+        <v>2168</v>
+      </c>
+      <c r="I178" s="26" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8405,8 +11836,17 @@
       <c r="E179" s="14" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G179" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H179" s="26" t="s">
+        <v>2170</v>
+      </c>
+      <c r="I179" s="26" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8422,8 +11862,17 @@
       <c r="E180" s="14" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G180" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="H180" s="26" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I180" s="26" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8439,8 +11888,17 @@
       <c r="E181" s="16" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G181" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H181" s="26" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I181" s="26" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8456,11 +11914,20 @@
       <c r="E182" s="14" t="s">
         <v>305</v>
       </c>
+      <c r="F182" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="G182" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2175</v>
+      </c>
+      <c r="H182" s="26" t="s">
+        <v>2176</v>
+      </c>
+      <c r="I182" s="26" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8474,8 +11941,17 @@
       <c r="E183" s="14" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G183" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="H183" s="26" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I183" s="26" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8491,8 +11967,17 @@
       <c r="E184" s="14" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G184" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H184" s="26" t="s">
+        <v>2180</v>
+      </c>
+      <c r="I184" s="26" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8508,8 +11993,17 @@
       <c r="E185" s="14" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G185" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H185" s="26" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I185" s="26" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8523,8 +12017,14 @@
       <c r="E186" s="14" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G186" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8540,8 +12040,14 @@
       <c r="E187" s="14" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G187" s="26" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H187" s="26" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8555,8 +12061,14 @@
       <c r="E188" s="14" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G188" s="26" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H188" s="26" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8570,8 +12082,14 @@
       <c r="E189" s="14" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G189" s="26" t="s">
+        <v>2203</v>
+      </c>
+      <c r="H189" s="26" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8585,8 +12103,14 @@
       <c r="E190" s="14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G190" s="26" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H190" s="26" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8600,8 +12124,14 @@
       <c r="E191" s="16" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G191" s="26" t="s">
+        <v>2207</v>
+      </c>
+      <c r="H191" s="26" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8617,11 +12147,17 @@
       <c r="E192" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G192" s="26" t="s">
+        <v>2209</v>
+      </c>
+      <c r="H192" s="26" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8635,8 +12171,14 @@
       <c r="E193" s="14" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G193" s="26" t="s">
+        <v>2211</v>
+      </c>
+      <c r="H193" s="26" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8652,8 +12194,14 @@
       <c r="E194" s="14" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G194" s="26" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H194" s="26" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8669,8 +12217,14 @@
       <c r="E195" s="14" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G195" s="26" t="s">
+        <v>2215</v>
+      </c>
+      <c r="H195" s="26" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8684,8 +12238,14 @@
       <c r="E196" s="14" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G196" s="26" t="s">
+        <v>2215</v>
+      </c>
+      <c r="H196" s="26" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8701,8 +12261,14 @@
       <c r="E197" s="14" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G197" s="26" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H197" s="26" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8718,8 +12284,14 @@
       <c r="E198" s="14" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G198" s="26" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H198" s="26" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8735,8 +12307,14 @@
       <c r="E199" s="14" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G199" s="26" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H199" s="26" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8752,8 +12330,14 @@
       <c r="E200" s="14" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G200" s="26" t="s">
+        <v>2220</v>
+      </c>
+      <c r="H200" s="26" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="9" t="s">
         <v>1462</v>
       </c>
@@ -8769,8 +12353,14 @@
       <c r="E201" s="16" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G201" s="26" t="s">
+        <v>2222</v>
+      </c>
+      <c r="H201" s="26" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8786,11 +12376,17 @@
       <c r="E202" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="F202" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G202" s="26" t="s">
+        <v>2224</v>
+      </c>
+      <c r="H202" s="26" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8806,8 +12402,14 @@
       <c r="E203" s="14" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G203" s="26" t="s">
+        <v>2226</v>
+      </c>
+      <c r="H203" s="26" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8823,8 +12425,14 @@
       <c r="E204" s="14" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G204" s="26" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H204" s="26" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8840,8 +12448,14 @@
       <c r="E205" s="14" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G205" s="26" t="s">
+        <v>2230</v>
+      </c>
+      <c r="H205" s="26" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8857,8 +12471,14 @@
       <c r="E206" s="14" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G206" s="26" t="s">
+        <v>2232</v>
+      </c>
+      <c r="H206" s="26" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8874,8 +12494,14 @@
       <c r="E207" s="14" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G207" s="26" t="s">
+        <v>2234</v>
+      </c>
+      <c r="H207" s="26" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8891,8 +12517,14 @@
       <c r="E208" s="14" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G208" s="26" t="s">
+        <v>2236</v>
+      </c>
+      <c r="H208" s="26" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8908,8 +12540,14 @@
       <c r="E209" s="14" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G209" s="26" t="s">
+        <v>2238</v>
+      </c>
+      <c r="H209" s="26" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8925,8 +12563,14 @@
       <c r="E210" s="14" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G210" s="26" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H210" s="26" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="13" t="s">
         <v>1462</v>
       </c>
@@ -8942,8 +12586,17 @@
       <c r="E211" s="14" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G211" s="26" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H211" s="26" t="s">
+        <v>1673</v>
+      </c>
+      <c r="I211" s="26" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="12" t="s">
         <v>1463</v>
       </c>
@@ -8959,8 +12612,17 @@
       <c r="E212" s="14" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G212" s="26" t="s">
+        <v>1674</v>
+      </c>
+      <c r="H212" s="26" t="s">
+        <v>1675</v>
+      </c>
+      <c r="I212" s="26" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="9" t="s">
         <v>1461</v>
       </c>
@@ -8976,8 +12638,17 @@
       <c r="E213" s="14" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G213" s="26" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H213" s="26" t="s">
+        <v>1677</v>
+      </c>
+      <c r="I213" s="26" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="13" t="s">
         <v>1462</v>
       </c>
@@ -8993,8 +12664,17 @@
       <c r="E214" s="14" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G214" s="26" t="s">
+        <v>1678</v>
+      </c>
+      <c r="H214" s="26" t="s">
+        <v>1679</v>
+      </c>
+      <c r="I214" s="26" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="9" t="s">
         <v>1461</v>
       </c>
@@ -9010,8 +12690,17 @@
       <c r="E215" s="14" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G215" s="26" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H215" s="26" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I215" s="26" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="13" t="s">
         <v>1462</v>
       </c>
@@ -9027,8 +12716,17 @@
       <c r="E216" s="14" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G216" s="26" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H216" s="26" t="s">
+        <v>1682</v>
+      </c>
+      <c r="I216" s="26" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="12" t="s">
         <v>1463</v>
       </c>
@@ -9044,8 +12742,17 @@
       <c r="E217" s="14" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G217" s="26" t="s">
+        <v>1683</v>
+      </c>
+      <c r="H217" s="26" t="s">
+        <v>1684</v>
+      </c>
+      <c r="I217" s="26" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="9" t="s">
         <v>1461</v>
       </c>
@@ -9061,8 +12768,17 @@
       <c r="E218" s="14" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G218" s="26" t="s">
+        <v>1687</v>
+      </c>
+      <c r="H218" s="26" t="s">
+        <v>1685</v>
+      </c>
+      <c r="I218" s="26" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="9" t="s">
         <v>1461</v>
       </c>
@@ -9078,8 +12794,17 @@
       <c r="E219" s="14" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G219" s="26" t="s">
+        <v>1686</v>
+      </c>
+      <c r="H219" s="26" t="s">
+        <v>1688</v>
+      </c>
+      <c r="I219" s="26" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="13" t="s">
         <v>1462</v>
       </c>
@@ -9095,8 +12820,17 @@
       <c r="E220" s="16" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G220" s="26" t="s">
+        <v>1689</v>
+      </c>
+      <c r="H220" s="26" t="s">
+        <v>1690</v>
+      </c>
+      <c r="I220" s="26" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="9" t="s">
         <v>1461</v>
       </c>
@@ -9112,11 +12846,20 @@
       <c r="E221" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="F221" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G221" s="26" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H221" s="26" t="s">
+        <v>1692</v>
+      </c>
+      <c r="I221" s="26" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="9" t="s">
         <v>1461</v>
       </c>
@@ -9132,8 +12875,17 @@
       <c r="E222" s="14" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G222" s="26" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H222" s="26" t="s">
+        <v>1694</v>
+      </c>
+      <c r="I222" s="26" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="13" t="s">
         <v>1462</v>
       </c>
@@ -9149,8 +12901,17 @@
       <c r="E223" s="14" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G223" s="26" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H223" s="26" t="s">
+        <v>1696</v>
+      </c>
+      <c r="I223" s="26" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="12" t="s">
         <v>1463</v>
       </c>
@@ -9166,8 +12927,17 @@
       <c r="E224" s="14" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G224" s="26" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H224" s="26" t="s">
+        <v>1698</v>
+      </c>
+      <c r="I224" s="26" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="9" t="s">
         <v>1461</v>
       </c>
@@ -9183,8 +12953,17 @@
       <c r="E225" s="16" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G225" s="26" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H225" s="26" t="s">
+        <v>1700</v>
+      </c>
+      <c r="I225" s="26" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="13"/>
       <c r="B226" s="13" t="s">
         <v>367</v>
@@ -9196,11 +12975,20 @@
       <c r="E226" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="F226" s="1" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G226" s="26" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H226" s="26" t="s">
+        <v>1702</v>
+      </c>
+      <c r="I226" s="26" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="13"/>
       <c r="B227" s="13" t="s">
         <v>369</v>
@@ -9212,8 +13000,17 @@
       <c r="E227" s="14" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G227" s="26" t="s">
+        <v>1703</v>
+      </c>
+      <c r="H227" s="26" t="s">
+        <v>1704</v>
+      </c>
+      <c r="I227" s="26" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="13"/>
       <c r="B228" s="13" t="s">
         <v>371</v>
@@ -9225,8 +13022,17 @@
       <c r="E228" s="14" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G228" s="26" t="s">
+        <v>1705</v>
+      </c>
+      <c r="H228" s="26" t="s">
+        <v>1706</v>
+      </c>
+      <c r="I228" s="26" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="13"/>
       <c r="B229" s="13" t="s">
         <v>374</v>
@@ -9238,8 +13044,17 @@
       <c r="E229" s="14" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G229" s="26" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H229" s="26" t="s">
+        <v>1708</v>
+      </c>
+      <c r="I229" s="26" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="13"/>
       <c r="B230" s="13" t="s">
         <v>376</v>
@@ -9251,8 +13066,17 @@
       <c r="E230" s="14" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G230" s="26" t="s">
+        <v>1709</v>
+      </c>
+      <c r="H230" s="26" t="s">
+        <v>1710</v>
+      </c>
+      <c r="I230" s="26" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="13"/>
       <c r="B231" s="13" t="s">
         <v>379</v>
@@ -9264,8 +13088,17 @@
       <c r="E231" s="14" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G231" s="26" t="s">
+        <v>1711</v>
+      </c>
+      <c r="H231" s="26" t="s">
+        <v>1712</v>
+      </c>
+      <c r="I231" s="26" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="13"/>
       <c r="B232" s="13" t="s">
         <v>381</v>
@@ -9277,8 +13110,17 @@
       <c r="E232" s="14" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G232" s="26" t="s">
+        <v>1713</v>
+      </c>
+      <c r="H232" s="26" t="s">
+        <v>1714</v>
+      </c>
+      <c r="I232" s="26" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="13"/>
       <c r="B233" s="13" t="s">
         <v>384</v>
@@ -9290,8 +13132,17 @@
       <c r="E233" s="14" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G233" s="26" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H233" s="26" t="s">
+        <v>1716</v>
+      </c>
+      <c r="I233" s="26" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="13"/>
       <c r="B234" s="13" t="s">
         <v>386</v>
@@ -9303,8 +13154,17 @@
       <c r="E234" s="14" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G234" s="26" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H234" s="26" t="s">
+        <v>1718</v>
+      </c>
+      <c r="I234" s="26" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="13"/>
       <c r="B235" s="13" t="s">
         <v>388</v>
@@ -9316,8 +13176,17 @@
       <c r="E235" s="14" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G235" s="26" t="s">
+        <v>1719</v>
+      </c>
+      <c r="H235" s="26" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I235" s="26" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="13"/>
       <c r="B236" s="13" t="s">
         <v>390</v>
@@ -9329,8 +13198,17 @@
       <c r="E236" s="14" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G236" s="26" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H236" s="26" t="s">
+        <v>1722</v>
+      </c>
+      <c r="I236" s="26" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="13"/>
       <c r="B237" s="13" t="s">
         <v>393</v>
@@ -9342,8 +13220,17 @@
       <c r="E237" s="14" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G237" s="26" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H237" s="26" t="s">
+        <v>1724</v>
+      </c>
+      <c r="I237" s="26" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="13"/>
       <c r="B238" s="13" t="s">
         <v>396</v>
@@ -9355,8 +13242,17 @@
       <c r="E238" s="14" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G238" s="26" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H238" s="26" t="s">
+        <v>1726</v>
+      </c>
+      <c r="I238" s="26" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="13"/>
       <c r="B239" s="13" t="s">
         <v>399</v>
@@ -9368,8 +13264,17 @@
       <c r="E239" s="14" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G239" s="26" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H239" s="26" t="s">
+        <v>1728</v>
+      </c>
+      <c r="I239" s="26" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="13"/>
       <c r="B240" s="13" t="s">
         <v>401</v>
@@ -9381,8 +13286,17 @@
       <c r="E240" s="14" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G240" s="26" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H240" s="26" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I240" s="26" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="13"/>
       <c r="B241" s="13" t="s">
         <v>404</v>
@@ -9394,8 +13308,17 @@
       <c r="E241" s="14" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G241" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="I241" s="26" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="13"/>
       <c r="B242" s="13" t="s">
         <v>407</v>
@@ -9407,8 +13330,17 @@
       <c r="E242" s="14" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G242" s="26" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H242" s="26" t="s">
+        <v>1734</v>
+      </c>
+      <c r="I242" s="26" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="13"/>
       <c r="B243" s="13" t="s">
         <v>409</v>
@@ -9420,8 +13352,17 @@
       <c r="E243" s="14" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G243" s="26" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H243" s="26" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I243" s="26" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="13"/>
       <c r="B244" s="13" t="s">
         <v>412</v>
@@ -9433,8 +13374,17 @@
       <c r="E244" s="14" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G244" s="26" t="s">
+        <v>1737</v>
+      </c>
+      <c r="H244" s="26" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I244" s="26" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="13"/>
       <c r="B245" s="13" t="s">
         <v>415</v>
@@ -9446,8 +13396,17 @@
       <c r="E245" s="14" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G245" s="26" t="s">
+        <v>1739</v>
+      </c>
+      <c r="H245" s="26" t="s">
+        <v>1740</v>
+      </c>
+      <c r="I245" s="26" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="15"/>
       <c r="B246" s="15" t="s">
         <v>101</v>
@@ -9459,8 +13418,17 @@
       <c r="E246" s="16" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G246" s="26" t="s">
+        <v>1741</v>
+      </c>
+      <c r="H246" s="26" t="s">
+        <v>1742</v>
+      </c>
+      <c r="I246" s="26" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="13"/>
       <c r="B247" s="13" t="s">
         <v>419</v>
@@ -9472,8 +13440,17 @@
       <c r="E247" s="14" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G247" s="26" t="s">
+        <v>1743</v>
+      </c>
+      <c r="H247" s="26" t="s">
+        <v>1744</v>
+      </c>
+      <c r="I247" s="26" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="13"/>
       <c r="B248" s="13" t="s">
         <v>422</v>
@@ -9485,8 +13462,17 @@
       <c r="E248" s="14" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G248" s="26" t="s">
+        <v>1745</v>
+      </c>
+      <c r="H248" s="26" t="s">
+        <v>1746</v>
+      </c>
+      <c r="I248" s="26" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="13"/>
       <c r="B249" s="13" t="s">
         <v>425</v>
@@ -9498,8 +13484,17 @@
       <c r="E249" s="14" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G249" s="26" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H249" s="26" t="s">
+        <v>1748</v>
+      </c>
+      <c r="I249" s="26" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="13"/>
       <c r="B250" s="13" t="s">
         <v>428</v>
@@ -9511,8 +13506,17 @@
       <c r="E250" s="14" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G250" s="26" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H250" s="26" t="s">
+        <v>1750</v>
+      </c>
+      <c r="I250" s="26" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="13"/>
       <c r="B251" s="13" t="s">
         <v>430</v>
@@ -9524,8 +13528,17 @@
       <c r="E251" s="14" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G251" s="26" t="s">
+        <v>1751</v>
+      </c>
+      <c r="H251" s="26" t="s">
+        <v>1752</v>
+      </c>
+      <c r="I251" s="26" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="13"/>
       <c r="B252" s="13" t="s">
         <v>432</v>
@@ -9537,8 +13550,17 @@
       <c r="E252" s="14" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G252" s="26" t="s">
+        <v>1753</v>
+      </c>
+      <c r="H252" s="26" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I252" s="26" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="13"/>
       <c r="B253" s="13" t="s">
         <v>434</v>
@@ -9550,8 +13572,17 @@
       <c r="E253" s="14" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G253" s="26" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H253" s="26" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I253" s="26" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="13"/>
       <c r="B254" s="13" t="s">
         <v>437</v>
@@ -9563,8 +13594,17 @@
       <c r="E254" s="14" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G254" s="26" t="s">
+        <v>1757</v>
+      </c>
+      <c r="H254" s="26" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I254" s="26" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="13"/>
       <c r="B255" s="13" t="s">
         <v>439</v>
@@ -9576,8 +13616,17 @@
       <c r="E255" s="14" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G255" s="26" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H255" s="26" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I255" s="26" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="13"/>
       <c r="B256" s="13" t="s">
         <v>441</v>
@@ -9589,8 +13638,17 @@
       <c r="E256" s="14" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G256" s="26" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H256" s="26" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I256" s="26" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="13"/>
       <c r="B257" s="13" t="s">
         <v>443</v>
@@ -9602,8 +13660,17 @@
       <c r="E257" s="14" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G257" s="26" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H257" s="26" t="s">
+        <v>1764</v>
+      </c>
+      <c r="I257" s="26" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="13"/>
       <c r="B258" s="13" t="s">
         <v>445</v>
@@ -9615,8 +13682,17 @@
       <c r="E258" s="14" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G258" s="26" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H258" s="26" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I258" s="26" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="13"/>
       <c r="B259" s="13" t="s">
         <v>447</v>
@@ -9628,8 +13704,17 @@
       <c r="E259" s="14" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G259" s="26" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H259" s="26" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I259" s="26" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="13"/>
       <c r="B260" s="13" t="s">
         <v>449</v>
@@ -9641,8 +13726,17 @@
       <c r="E260" s="14" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G260" s="26" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H260" s="26" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I260" s="26" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="13"/>
       <c r="B261" s="13" t="s">
         <v>451</v>
@@ -9654,8 +13748,17 @@
       <c r="E261" s="14" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G261" s="26" t="s">
+        <v>1771</v>
+      </c>
+      <c r="H261" s="26" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I261" s="26" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="13"/>
       <c r="B262" s="13" t="s">
         <v>453</v>
@@ -9667,8 +13770,17 @@
       <c r="E262" s="14" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G262" s="26" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H262" s="26" t="s">
+        <v>1775</v>
+      </c>
+      <c r="I262" s="26" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="13"/>
       <c r="B263" s="13" t="s">
         <v>456</v>
@@ -9680,8 +13792,17 @@
       <c r="E263" s="14" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G263" s="26" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H263" s="26" t="s">
+        <v>1776</v>
+      </c>
+      <c r="I263" s="26" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="13"/>
       <c r="B264" s="13" t="s">
         <v>458</v>
@@ -9693,8 +13814,17 @@
       <c r="E264" s="14" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G264" s="26" t="s">
+        <v>1777</v>
+      </c>
+      <c r="H264" s="26" t="s">
+        <v>1778</v>
+      </c>
+      <c r="I264" s="26" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="13"/>
       <c r="B265" s="13" t="s">
         <v>461</v>
@@ -9706,8 +13836,17 @@
       <c r="E265" s="14" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G265" s="26" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H265" s="26" t="s">
+        <v>1780</v>
+      </c>
+      <c r="I265" s="26" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="13"/>
       <c r="B266" s="13" t="s">
         <v>463</v>
@@ -9719,8 +13858,17 @@
       <c r="E266" s="14" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G266" s="26" t="s">
+        <v>1781</v>
+      </c>
+      <c r="H266" s="26" t="s">
+        <v>1782</v>
+      </c>
+      <c r="I266" s="26" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="13"/>
       <c r="B267" s="13" t="s">
         <v>465</v>
@@ -9732,8 +13880,17 @@
       <c r="E267" s="14" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G267" s="26" t="s">
+        <v>1783</v>
+      </c>
+      <c r="H267" s="26" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I267" s="26" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="13"/>
       <c r="B268" s="13" t="s">
         <v>468</v>
@@ -9745,8 +13902,17 @@
       <c r="E268" s="14" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G268" s="26" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H268" s="26" t="s">
+        <v>1786</v>
+      </c>
+      <c r="I268" s="26" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="15"/>
       <c r="B269" s="15" t="s">
         <v>471</v>
@@ -9758,8 +13924,17 @@
       <c r="E269" s="16" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G269" s="26" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H269" s="26" t="s">
+        <v>1788</v>
+      </c>
+      <c r="I269" s="26" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="13"/>
       <c r="B270" s="13" t="s">
         <v>473</v>
@@ -9771,8 +13946,17 @@
       <c r="E270" s="14" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G270" s="26" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H270" s="26" t="s">
+        <v>1790</v>
+      </c>
+      <c r="I270" s="26" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="13"/>
       <c r="B271" s="13" t="s">
         <v>476</v>
@@ -9784,8 +13968,17 @@
       <c r="E271" s="14" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G271" s="26" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H271" s="26" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I271" s="26" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="13"/>
       <c r="B272" s="13" t="s">
         <v>479</v>
@@ -9797,8 +13990,17 @@
       <c r="E272" s="14" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G272" s="26" t="s">
+        <v>1793</v>
+      </c>
+      <c r="H272" s="26" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I272" s="26" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="13"/>
       <c r="B273" s="13" t="s">
         <v>481</v>
@@ -9810,8 +14012,17 @@
       <c r="E273" s="14" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G273" s="26" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H273" s="26" t="s">
+        <v>1794</v>
+      </c>
+      <c r="I273" s="26" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="13"/>
       <c r="B274" s="13" t="s">
         <v>484</v>
@@ -9823,8 +14034,17 @@
       <c r="E274" s="14" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G274" s="26" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H274" s="26" t="s">
+        <v>1796</v>
+      </c>
+      <c r="I274" s="26" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="13"/>
       <c r="B275" s="13" t="s">
         <v>487</v>
@@ -9836,8 +14056,17 @@
       <c r="E275" s="14" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G275" s="26" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H275" s="26" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I275" s="26" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="13"/>
       <c r="B276" s="13" t="s">
         <v>490</v>
@@ -9849,8 +14078,17 @@
       <c r="E276" s="14" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G276" s="26" t="s">
+        <v>1799</v>
+      </c>
+      <c r="H276" s="26" t="s">
+        <v>1800</v>
+      </c>
+      <c r="I276" s="26" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="13"/>
       <c r="B277" s="13" t="s">
         <v>493</v>
@@ -9862,8 +14100,17 @@
       <c r="E277" s="14" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G277" s="26" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H277" s="26" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I277" s="26" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="13"/>
       <c r="B278" s="13" t="s">
         <v>495</v>
@@ -9875,8 +14122,17 @@
       <c r="E278" s="14" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G278" s="26" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H278" s="26" t="s">
+        <v>1804</v>
+      </c>
+      <c r="I278" s="26" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="13"/>
       <c r="B279" s="13" t="s">
         <v>498</v>
@@ -9888,8 +14144,17 @@
       <c r="E279" s="14" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G279" s="26" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H279" s="26" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I279" s="26" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="15"/>
       <c r="B280" s="15" t="s">
         <v>501</v>
@@ -9901,8 +14166,17 @@
       <c r="E280" s="16" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G280" s="26" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H280" s="26" t="s">
+        <v>1808</v>
+      </c>
+      <c r="I280" s="26" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="13"/>
       <c r="B281" s="13" t="s">
         <v>505</v>
@@ -9914,11 +14188,20 @@
       <c r="E281" s="18">
         <v>1</v>
       </c>
-      <c r="G281" s="1" t="s">
+      <c r="F281" s="26" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G281" s="26" t="s">
+        <v>1809</v>
+      </c>
+      <c r="H281" s="26" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I281" s="26" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="13"/>
       <c r="B282" s="13" t="s">
         <v>507</v>
@@ -9930,8 +14213,17 @@
       <c r="E282" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G282" s="26" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H282" s="26" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I282" s="26" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="13"/>
       <c r="B283" s="13" t="s">
         <v>509</v>
@@ -9943,8 +14235,17 @@
       <c r="E283" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G283" s="26" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H283" s="26" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I283" s="26" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="13"/>
       <c r="B284" s="13" t="s">
         <v>511</v>
@@ -9956,8 +14257,17 @@
       <c r="E284" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G284" s="26" t="s">
+        <v>1815</v>
+      </c>
+      <c r="H284" s="26" t="s">
+        <v>1816</v>
+      </c>
+      <c r="I284" s="26" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="13"/>
       <c r="B285" s="13" t="s">
         <v>513</v>
@@ -9969,8 +14279,17 @@
       <c r="E285" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G285" s="26" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H285" s="26" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I285" s="26" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="13"/>
       <c r="B286" s="13" t="s">
         <v>515</v>
@@ -9983,7 +14302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="13"/>
       <c r="B287" s="13" t="s">
         <v>517</v>
@@ -9996,7 +14315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="13"/>
       <c r="B288" s="13" t="s">
         <v>518</v>
@@ -10217,7 +14536,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="13"/>
       <c r="B305" s="13" t="s">
         <v>540</v>
@@ -10230,7 +14549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="13"/>
       <c r="B306" s="13" t="s">
         <v>541</v>
@@ -10243,7 +14562,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="13"/>
       <c r="B307" s="13" t="s">
         <v>542</v>
@@ -10256,7 +14575,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="13"/>
       <c r="B308" s="13" t="s">
         <v>543</v>
@@ -10269,7 +14588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="13"/>
       <c r="B309" s="13" t="s">
         <v>544</v>
@@ -10282,7 +14601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="15"/>
       <c r="B310" s="15" t="s">
         <v>545</v>
@@ -10295,7 +14614,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="13"/>
       <c r="B311" s="13" t="s">
         <v>547</v>
@@ -10307,11 +14626,11 @@
       <c r="E311" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="G311" s="1" t="s">
+      <c r="F311" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="13"/>
       <c r="B312" s="13" t="s">
         <v>549</v>
@@ -10324,7 +14643,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="13"/>
       <c r="B313" s="13" t="s">
         <v>551</v>
@@ -10337,7 +14656,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="13"/>
       <c r="B314" s="13" t="s">
         <v>553</v>
@@ -10350,7 +14669,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="13"/>
       <c r="B315" s="13" t="s">
         <v>555</v>
@@ -10363,7 +14682,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="13"/>
       <c r="B316" s="13" t="s">
         <v>557</v>
@@ -10376,7 +14695,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="13"/>
       <c r="B317" s="13" t="s">
         <v>559</v>
@@ -10389,7 +14708,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="13"/>
       <c r="B318" s="13" t="s">
         <v>561</v>
@@ -10402,7 +14721,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="13"/>
       <c r="B319" s="13" t="s">
         <v>563</v>
@@ -10415,7 +14734,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="13"/>
       <c r="B320" s="13" t="s">
         <v>565</v>
@@ -10428,7 +14747,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="13"/>
       <c r="B321" s="13" t="s">
         <v>567</v>
@@ -10441,7 +14760,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="13"/>
       <c r="B322" s="13" t="s">
         <v>569</v>
@@ -10454,7 +14773,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="13"/>
       <c r="B323" s="13" t="s">
         <v>571</v>
@@ -10467,7 +14786,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="13"/>
       <c r="B324" s="13" t="s">
         <v>573</v>
@@ -10480,7 +14799,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="13"/>
       <c r="B325" s="13" t="s">
         <v>575</v>
@@ -10493,7 +14812,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="13"/>
       <c r="B326" s="13" t="s">
         <v>577</v>
@@ -10506,7 +14825,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="13"/>
       <c r="B327" s="13" t="s">
         <v>579</v>
@@ -10519,7 +14838,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="13"/>
       <c r="B328" s="13" t="s">
         <v>581</v>
@@ -10532,7 +14851,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="15"/>
       <c r="B329" s="15" t="s">
         <v>583</v>
@@ -10545,7 +14864,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="13"/>
       <c r="B330" s="13" t="s">
         <v>586</v>
@@ -10557,11 +14876,11 @@
       <c r="E330" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="G330" s="1" t="s">
+      <c r="F330" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="13"/>
       <c r="B331" s="13" t="s">
         <v>589</v>
@@ -10574,7 +14893,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="13"/>
       <c r="B332" s="13" t="s">
         <v>592</v>
@@ -10587,7 +14906,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="13"/>
       <c r="B333" s="13" t="s">
         <v>595</v>
@@ -10600,7 +14919,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="13"/>
       <c r="B334" s="13" t="s">
         <v>598</v>
@@ -10613,7 +14932,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="13"/>
       <c r="B335" s="13" t="s">
         <v>601</v>
@@ -10626,7 +14945,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="13"/>
       <c r="B336" s="13" t="s">
         <v>604</v>
@@ -10639,7 +14958,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="13"/>
       <c r="B337" s="13" t="s">
         <v>595</v>
@@ -10652,7 +14971,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="15"/>
       <c r="B338" s="15" t="s">
         <v>608</v>
@@ -10665,7 +14984,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="13"/>
       <c r="B339" s="13" t="s">
         <v>611</v>
@@ -10677,11 +14996,11 @@
       <c r="E339" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="G339" s="1" t="s">
+      <c r="F339" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="13"/>
       <c r="B340" s="13" t="s">
         <v>614</v>
@@ -10694,7 +15013,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="13"/>
       <c r="B341" s="13" t="s">
         <v>481</v>
@@ -10707,7 +15026,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="13"/>
       <c r="B342" s="13" t="s">
         <v>618</v>
@@ -10720,7 +15039,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="343" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="13"/>
       <c r="B343" s="13" t="s">
         <v>473</v>
@@ -10733,7 +15052,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="13"/>
       <c r="B344" s="13" t="s">
         <v>622</v>
@@ -10746,7 +15065,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="345" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="13"/>
       <c r="B345" s="13" t="s">
         <v>625</v>
@@ -10759,7 +15078,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="13"/>
       <c r="B346" s="13" t="s">
         <v>627</v>
@@ -10772,7 +15091,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="347" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="13"/>
       <c r="B347" s="13" t="s">
         <v>629</v>
@@ -10785,7 +15104,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="13"/>
       <c r="B348" s="13" t="s">
         <v>468</v>
@@ -10798,7 +15117,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="349" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="13"/>
       <c r="B349" s="13" t="s">
         <v>633</v>
@@ -10811,7 +15130,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="13"/>
       <c r="B350" s="13" t="s">
         <v>636</v>
@@ -10824,7 +15143,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="13"/>
       <c r="B351" s="13" t="s">
         <v>638</v>
@@ -10837,7 +15156,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="13"/>
       <c r="B352" s="13" t="s">
         <v>641</v>
@@ -10850,7 +15169,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="13"/>
       <c r="B353" s="13" t="s">
         <v>643</v>
@@ -10863,7 +15182,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="13"/>
       <c r="B354" s="13" t="s">
         <v>646</v>
@@ -10876,7 +15195,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="15"/>
       <c r="B355" s="15" t="s">
         <v>649</v>
@@ -10889,7 +15208,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="13"/>
       <c r="B356" s="13" t="s">
         <v>653</v>
@@ -10901,11 +15220,11 @@
       <c r="E356" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="G356" s="1" t="s">
+      <c r="F356" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="13"/>
       <c r="B357" s="13" t="s">
         <v>655</v>
@@ -10918,7 +15237,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="358" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="13"/>
       <c r="B358" s="13" t="s">
         <v>657</v>
@@ -10931,7 +15250,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="359" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="13"/>
       <c r="B359" s="13" t="s">
         <v>659</v>
@@ -10944,7 +15263,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="13"/>
       <c r="B360" s="13" t="s">
         <v>661</v>
@@ -10957,7 +15276,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="13"/>
       <c r="B361" s="13" t="s">
         <v>663</v>
@@ -10970,7 +15289,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="13"/>
       <c r="B362" s="13" t="s">
         <v>665</v>
@@ -10983,7 +15302,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="363" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="13"/>
       <c r="B363" s="13" t="s">
         <v>667</v>
@@ -10996,7 +15315,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="364" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="13"/>
       <c r="B364" s="13" t="s">
         <v>669</v>
@@ -11009,7 +15328,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="13"/>
       <c r="B365" s="13" t="s">
         <v>671</v>
@@ -11022,7 +15341,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="366" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="13"/>
       <c r="B366" s="13" t="s">
         <v>672</v>
@@ -11035,7 +15354,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="367" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="13"/>
       <c r="B367" s="13" t="s">
         <v>674</v>
@@ -11048,7 +15367,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="368" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="13"/>
       <c r="B368" s="13" t="s">
         <v>676</v>
@@ -12101,7 +16420,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A449" s="13"/>
       <c r="B449" s="13" t="s">
         <v>837</v>
@@ -12114,7 +16433,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A450" s="13"/>
       <c r="B450" s="13" t="s">
         <v>839</v>
@@ -12127,7 +16446,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="13"/>
       <c r="B451" s="13" t="s">
         <v>841</v>
@@ -12140,7 +16459,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A452" s="13"/>
       <c r="B452" s="13" t="s">
         <v>843</v>
@@ -12153,7 +16472,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="453" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A453" s="13"/>
       <c r="B453" s="13" t="s">
         <v>845</v>
@@ -12166,7 +16485,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="454" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A454" s="13"/>
       <c r="B454" s="13" t="s">
         <v>847</v>
@@ -12179,7 +16498,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A455" s="13"/>
       <c r="B455" s="13" t="s">
         <v>849</v>
@@ -12192,7 +16511,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A456" s="13"/>
       <c r="B456" s="13" t="s">
         <v>851</v>
@@ -12205,7 +16524,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A457" s="13"/>
       <c r="B457" s="13" t="s">
         <v>853</v>
@@ -12218,7 +16537,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A458" s="13"/>
       <c r="B458" s="13" t="s">
         <v>855</v>
@@ -12231,7 +16550,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A459" s="13"/>
       <c r="B459" s="13" t="s">
         <v>857</v>
@@ -12244,7 +16563,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A460" s="13"/>
       <c r="B460" s="13" t="s">
         <v>859</v>
@@ -12257,7 +16576,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="461" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A461" s="13"/>
       <c r="B461" s="13" t="s">
         <v>861</v>
@@ -12270,7 +16589,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="15"/>
       <c r="B462" s="15" t="s">
         <v>863</v>
@@ -12283,7 +16602,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="463" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A463" s="13"/>
       <c r="B463" s="13" t="s">
         <v>866</v>
@@ -12295,11 +16614,11 @@
       <c r="E463" s="14" t="s">
         <v>868</v>
       </c>
-      <c r="G463" s="1" t="s">
+      <c r="F463" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="13"/>
       <c r="B464" s="13" t="s">
         <v>869</v>
@@ -12312,7 +16631,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="465" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A465" s="13"/>
       <c r="B465" s="13" t="s">
         <v>872</v>
@@ -12325,7 +16644,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="466" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="13"/>
       <c r="B466" s="13" t="s">
         <v>875</v>
@@ -12338,7 +16657,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A467" s="13"/>
       <c r="B467" s="13" t="s">
         <v>878</v>
@@ -12351,7 +16670,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="468" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A468" s="13"/>
       <c r="B468" s="13" t="s">
         <v>880</v>
@@ -12364,7 +16683,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="469" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A469" s="15"/>
       <c r="B469" s="15" t="s">
         <v>882</v>
@@ -12377,7 +16696,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A470" s="13"/>
       <c r="B470" s="13" t="s">
         <v>886</v>
@@ -12389,11 +16708,11 @@
       <c r="E470" s="14" t="s">
         <v>888</v>
       </c>
-      <c r="G470" s="1" t="s">
+      <c r="F470" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A471" s="13"/>
       <c r="B471" s="13" t="s">
         <v>889</v>
@@ -12406,7 +16725,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A472" s="13"/>
       <c r="B472" s="13" t="s">
         <v>891</v>
@@ -12419,7 +16738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="13"/>
       <c r="B473" s="13" t="s">
         <v>893</v>
@@ -12432,7 +16751,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A474" s="13"/>
       <c r="B474" s="13" t="s">
         <v>896</v>
@@ -12445,7 +16764,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="475" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A475" s="13"/>
       <c r="B475" s="13" t="s">
         <v>898</v>
@@ -12458,7 +16777,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="476" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A476" s="13"/>
       <c r="B476" s="13" t="s">
         <v>900</v>
@@ -12471,7 +16790,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A477" s="13"/>
       <c r="B477" s="13" t="s">
         <v>903</v>
@@ -12484,7 +16803,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A478" s="13"/>
       <c r="B478" s="13" t="s">
         <v>905</v>
@@ -12497,7 +16816,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A479" s="13"/>
       <c r="B479" s="13" t="s">
         <v>908</v>
@@ -12510,7 +16829,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="480" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="13"/>
       <c r="B480" s="13" t="s">
         <v>910</v>
@@ -12523,7 +16842,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="481" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A481" s="13"/>
       <c r="B481" s="13" t="s">
         <v>912</v>
@@ -12536,7 +16855,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="482" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A482" s="13"/>
       <c r="B482" s="13" t="s">
         <v>915</v>
@@ -12549,7 +16868,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="483" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A483" s="13"/>
       <c r="B483" s="13" t="s">
         <v>917</v>
@@ -12562,7 +16881,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="484" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A484" s="13"/>
       <c r="B484" s="13" t="s">
         <v>920</v>
@@ -12575,7 +16894,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="485" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A485" s="13"/>
       <c r="B485" s="13" t="s">
         <v>923</v>
@@ -12588,7 +16907,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="486" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A486" s="13"/>
       <c r="B486" s="13" t="s">
         <v>926</v>
@@ -12601,7 +16920,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="487" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A487" s="13"/>
       <c r="B487" s="13" t="s">
         <v>928</v>
@@ -12614,7 +16933,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A488" s="13"/>
       <c r="B488" s="13" t="s">
         <v>931</v>
@@ -12627,7 +16946,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="489" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A489" s="13"/>
       <c r="B489" s="13" t="s">
         <v>933</v>
@@ -12640,7 +16959,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A490" s="13"/>
       <c r="B490" s="13" t="s">
         <v>935</v>
@@ -12653,7 +16972,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="491" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A491" s="13"/>
       <c r="B491" s="13" t="s">
         <v>937</v>
@@ -12666,7 +16985,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="492" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A492" s="15"/>
       <c r="B492" s="15" t="s">
         <v>940</v>
@@ -12679,7 +16998,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="493" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A493" s="13"/>
       <c r="B493" s="13" t="s">
         <v>944</v>
@@ -12691,11 +17010,11 @@
       <c r="E493" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="G493" s="1" t="s">
+      <c r="F493" s="1" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="494" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A494" s="13"/>
       <c r="B494" s="13" t="s">
         <v>947</v>
@@ -12708,7 +17027,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="495" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="13"/>
       <c r="B495" s="13" t="s">
         <v>950</v>
@@ -12721,7 +17040,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="13"/>
       <c r="B496" s="13" t="s">
         <v>953</v>

--- a/appDE.xlsx
+++ b/appDE.xlsx
@@ -7373,7 +7373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="112" zoomScaleNormal="189" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
@@ -9734,7 +9734,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>1461</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>1461</v>
       </c>

--- a/appDE.xlsx
+++ b/appDE.xlsx
@@ -16727,9 +16727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22751,7 +22751,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
         <v>1463</v>
       </c>

--- a/appDE.xlsx
+++ b/appDE.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/appDE.xlsx
+++ b/appDE.xlsx
@@ -22514,7 +22514,7 @@
   <dimension ref="A1:L1580"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1466" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K1479" sqref="K1479"/>
     </sheetView>
   </sheetViews>
@@ -26103,7 +26103,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>1462</v>
       </c>
@@ -26135,7 +26135,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>1461</v>
       </c>
@@ -26167,7 +26167,7 @@
         <v>5572</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="9" t="s">
         <v>1461</v>
       </c>
@@ -26518,7 +26518,7 @@
         <v>5594</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>1462</v>
       </c>
@@ -27610,7 +27610,7 @@
         <v>5662</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="9" t="s">
         <v>1462</v>
       </c>
@@ -27642,7 +27642,7 @@
         <v>5664</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="9" t="s">
         <v>1462</v>
       </c>
@@ -28531,7 +28531,7 @@
         <v>5722</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
         <v>1463</v>
       </c>
@@ -28793,7 +28793,7 @@
         <v>5740</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="12" t="s">
         <v>1463</v>
       </c>
